--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1406955.771527448</v>
+        <v>1406545.435534332</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>307794.2797901472</v>
+        <v>307794.2797901445</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736557</v>
+        <v>504792.029273655</v>
       </c>
     </row>
     <row r="9">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.384903848250579</v>
       </c>
       <c r="F2" t="n">
-        <v>309.4243946755216</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
         <v>411.9429466803539</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
@@ -753,7 +753,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -786,25 +786,25 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>196.26937267076</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>36.48290991264078</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>12.66896515812823</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>224.7085544566639</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>185.8999029438461</v>
       </c>
       <c r="X5" t="n">
-        <v>281.200964092766</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>103.6182482180941</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>225.780964352756</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.1862775821671664</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>196.3747077436749</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
@@ -1199,7 +1199,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1224,7 +1224,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>69.83484498490527</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>109.3188701181024</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>58.0633291268696</v>
+        <v>56.78874461372731</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>279.3559559753634</v>
       </c>
       <c r="C11" t="n">
-        <v>267.3672729330451</v>
+        <v>193.6309549359061</v>
       </c>
       <c r="D11" t="n">
         <v>258.3485769775731</v>
       </c>
       <c r="E11" t="n">
-        <v>280.0907145474786</v>
+        <v>280.0907145474787</v>
       </c>
       <c r="F11" t="n">
         <v>299.2625306354558</v>
@@ -1388,7 +1388,7 @@
         <v>218.576145320995</v>
       </c>
       <c r="I11" t="n">
-        <v>59.70279766937176</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>111.2956432734875</v>
       </c>
       <c r="U11" t="n">
-        <v>20.04215800617272</v>
+        <v>141.5880086235683</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>267.462690926246</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>278.8592887224448</v>
@@ -1461,13 +1461,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>96.16466412089959</v>
+        <v>64.70493494728649</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>98.85281891431895</v>
       </c>
       <c r="I12" t="n">
-        <v>67.39308974070319</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.97266685006045</v>
+        <v>70.97266685006048</v>
       </c>
       <c r="C13" t="n">
-        <v>57.17266169546093</v>
+        <v>57.17266169546096</v>
       </c>
       <c r="D13" t="n">
-        <v>40.79402609303932</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>39.74177594881877</v>
+        <v>39.7417759488188</v>
       </c>
       <c r="F13" t="n">
-        <v>40.20870027700508</v>
+        <v>40.20870027700511</v>
       </c>
       <c r="G13" t="n">
-        <v>56.47596717112069</v>
+        <v>41.32289424990761</v>
       </c>
       <c r="H13" t="n">
-        <v>46.96565935710592</v>
+        <v>46.96565935710595</v>
       </c>
       <c r="I13" t="n">
-        <v>31.79025020147088</v>
+        <v>31.79025020147091</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>36.94507359255746</v>
       </c>
       <c r="S13" t="n">
-        <v>81.69390521205108</v>
+        <v>100.6959306337449</v>
       </c>
       <c r="T13" t="n">
         <v>120.068244243192</v>
       </c>
       <c r="U13" t="n">
-        <v>173.5707833777392</v>
+        <v>173.5707833777393</v>
       </c>
       <c r="V13" t="n">
-        <v>147.380803249686</v>
+        <v>147.3808032496861</v>
       </c>
       <c r="W13" t="n">
         <v>172.5476893202993</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>279.3559559753634</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>267.3672729330451</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>55.5284017682065</v>
       </c>
       <c r="E14" t="n">
-        <v>82.51053384119214</v>
+        <v>280.0907145474786</v>
       </c>
       <c r="F14" t="n">
         <v>299.2625306354558</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>74.2317913306462</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>111.2956432734875</v>
       </c>
       <c r="U14" t="n">
-        <v>141.5880086235682</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>222.8623332155425</v>
       </c>
       <c r="W14" t="n">
-        <v>248.1624326934994</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>267.462690926246</v>
@@ -1698,13 +1698,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>123.3406788486849</v>
+        <v>127.4323455528363</v>
       </c>
       <c r="H15" t="n">
         <v>98.85281891431895</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.39308974070319</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>151.1067464546052</v>
+        <v>79.62199000975355</v>
       </c>
       <c r="T15" t="n">
         <v>186.7625027923461</v>
@@ -1813,7 +1813,7 @@
         <v>36.94507359255743</v>
       </c>
       <c r="S16" t="n">
-        <v>100.6959306337449</v>
+        <v>44.74883161949317</v>
       </c>
       <c r="T16" t="n">
         <v>120.068244243192</v>
@@ -1831,7 +1831,7 @@
         <v>118.1927913161024</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.1205600579184</v>
+        <v>109.0676590721701</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>216.0377012494293</v>
+        <v>216.0377012494295</v>
       </c>
       <c r="C17" t="n">
-        <v>204.0490182071111</v>
+        <v>204.0490182071112</v>
       </c>
       <c r="D17" t="n">
-        <v>195.030322251639</v>
+        <v>195.0303222516392</v>
       </c>
       <c r="E17" t="n">
-        <v>216.7724598215446</v>
+        <v>216.7724598215447</v>
       </c>
       <c r="F17" t="n">
-        <v>235.9442759095217</v>
+        <v>235.9442759095219</v>
       </c>
       <c r="G17" t="n">
-        <v>237.8609669056682</v>
+        <v>237.8609669056684</v>
       </c>
       <c r="H17" t="n">
-        <v>155.2578905950609</v>
+        <v>155.2578905950611</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>10.91353660471214</v>
+        <v>10.91353660471232</v>
       </c>
       <c r="T17" t="n">
-        <v>47.97738854755344</v>
+        <v>47.97738854755361</v>
       </c>
       <c r="U17" t="n">
-        <v>78.26975389763419</v>
+        <v>78.26975389763436</v>
       </c>
       <c r="V17" t="n">
-        <v>159.5440784896084</v>
+        <v>159.5440784896086</v>
       </c>
       <c r="W17" t="n">
-        <v>184.8441779675653</v>
+        <v>184.8441779675655</v>
       </c>
       <c r="X17" t="n">
-        <v>204.144436200312</v>
+        <v>204.1444362003121</v>
       </c>
       <c r="Y17" t="n">
-        <v>215.5410339965107</v>
+        <v>215.5410339965109</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>127.4323455528363</v>
       </c>
       <c r="H18" t="n">
-        <v>98.85281891431895</v>
+        <v>94.76115221016978</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>147.0150797504538</v>
+        <v>151.1067464546052</v>
       </c>
       <c r="T18" t="n">
         <v>186.7625027923461</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.654412124126395</v>
+        <v>7.654412124126566</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>26.8875265364298</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>37.37767590781083</v>
+        <v>64.26520244423958</v>
       </c>
       <c r="T19" t="n">
-        <v>56.74998951725791</v>
+        <v>56.74998951725808</v>
       </c>
       <c r="U19" t="n">
-        <v>110.2525286518052</v>
+        <v>110.2525286518053</v>
       </c>
       <c r="V19" t="n">
-        <v>84.06254852375199</v>
+        <v>84.06254852375216</v>
       </c>
       <c r="W19" t="n">
-        <v>109.2294345943652</v>
+        <v>109.2294345943654</v>
       </c>
       <c r="X19" t="n">
-        <v>54.87453659016836</v>
+        <v>54.87453659016853</v>
       </c>
       <c r="Y19" t="n">
-        <v>45.74940434623605</v>
+        <v>45.74940434623622</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>216.0377012494293</v>
+        <v>216.0377012494295</v>
       </c>
       <c r="C20" t="n">
-        <v>204.0490182071111</v>
+        <v>204.0490182071112</v>
       </c>
       <c r="D20" t="n">
-        <v>195.030322251639</v>
+        <v>195.0303222516392</v>
       </c>
       <c r="E20" t="n">
-        <v>216.7724598215446</v>
+        <v>216.7724598215447</v>
       </c>
       <c r="F20" t="n">
-        <v>235.9442759095217</v>
+        <v>235.9442759095219</v>
       </c>
       <c r="G20" t="n">
-        <v>237.8609669056682</v>
+        <v>237.8609669056684</v>
       </c>
       <c r="H20" t="n">
-        <v>155.2578905950609</v>
+        <v>155.2578905950611</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>10.91353660471215</v>
+        <v>10.91353660471332</v>
       </c>
       <c r="T20" t="n">
-        <v>47.97738854755344</v>
+        <v>47.97738854755361</v>
       </c>
       <c r="U20" t="n">
-        <v>78.26975389763419</v>
+        <v>78.26975389763436</v>
       </c>
       <c r="V20" t="n">
-        <v>159.5440784896084</v>
+        <v>159.5440784896086</v>
       </c>
       <c r="W20" t="n">
-        <v>184.8441779675653</v>
+        <v>184.8441779675655</v>
       </c>
       <c r="X20" t="n">
-        <v>204.144436200312</v>
+        <v>204.1444362003121</v>
       </c>
       <c r="Y20" t="n">
-        <v>215.5410339965107</v>
+        <v>215.5410339965109</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>127.4323455528363</v>
       </c>
       <c r="H21" t="n">
-        <v>98.85281891431895</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.39308974070319</v>
+        <v>36.12540830876916</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>186.7625027923461</v>
       </c>
       <c r="U21" t="n">
-        <v>86.18876061667314</v>
+        <v>216.3092609629287</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.654412124126395</v>
+        <v>7.654412124126566</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>26.88752653642849</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>64.2652024442407</v>
+        <v>37.377675907811</v>
       </c>
       <c r="T22" t="n">
-        <v>56.74998951725791</v>
+        <v>56.74998951725808</v>
       </c>
       <c r="U22" t="n">
-        <v>110.2525286518052</v>
+        <v>110.2525286518053</v>
       </c>
       <c r="V22" t="n">
-        <v>84.06254852375199</v>
+        <v>84.06254852375216</v>
       </c>
       <c r="W22" t="n">
-        <v>109.2294345943652</v>
+        <v>109.2294345943654</v>
       </c>
       <c r="X22" t="n">
-        <v>54.87453659016836</v>
+        <v>54.87453659016853</v>
       </c>
       <c r="Y22" t="n">
-        <v>45.74940434623605</v>
+        <v>45.74940434623622</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>216.0377012494293</v>
+        <v>216.0377012494295</v>
       </c>
       <c r="C23" t="n">
-        <v>204.0490182071111</v>
+        <v>204.0490182071112</v>
       </c>
       <c r="D23" t="n">
-        <v>195.030322251639</v>
+        <v>195.0303222516392</v>
       </c>
       <c r="E23" t="n">
-        <v>216.7724598215446</v>
+        <v>216.7724598215447</v>
       </c>
       <c r="F23" t="n">
-        <v>235.9442759095217</v>
+        <v>235.9442759095219</v>
       </c>
       <c r="G23" t="n">
-        <v>237.8609669056682</v>
+        <v>237.8609669056684</v>
       </c>
       <c r="H23" t="n">
-        <v>155.2578905950609</v>
+        <v>155.2578905950611</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>10.91353660471215</v>
+        <v>10.91353660471232</v>
       </c>
       <c r="T23" t="n">
-        <v>47.97738854755344</v>
+        <v>47.97738854755361</v>
       </c>
       <c r="U23" t="n">
-        <v>78.26975389763419</v>
+        <v>78.26975389763436</v>
       </c>
       <c r="V23" t="n">
-        <v>159.5440784896084</v>
+        <v>159.5440784896086</v>
       </c>
       <c r="W23" t="n">
-        <v>184.8441779675653</v>
+        <v>184.8441779675655</v>
       </c>
       <c r="X23" t="n">
-        <v>204.144436200312</v>
+        <v>204.1444362003121</v>
       </c>
       <c r="Y23" t="n">
-        <v>215.5410339965107</v>
+        <v>215.5410339965109</v>
       </c>
     </row>
     <row r="24">
@@ -2409,13 +2409,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4323455528363</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>98.85281891431895</v>
       </c>
       <c r="I24" t="n">
-        <v>67.39308974070319</v>
+        <v>64.70493494728473</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>151.1067464546052</v>
       </c>
       <c r="T24" t="n">
-        <v>56.64200244608911</v>
+        <v>186.7625027923461</v>
       </c>
       <c r="U24" t="n">
         <v>216.3092609629287</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.654412124126395</v>
+        <v>7.654412124126566</v>
       </c>
       <c r="C25" t="n">
-        <v>26.88752653642982</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>26.88752653642841</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>37.37767590781083</v>
+        <v>37.377675907811</v>
       </c>
       <c r="T25" t="n">
-        <v>56.74998951725791</v>
+        <v>56.74998951725808</v>
       </c>
       <c r="U25" t="n">
-        <v>110.2525286518052</v>
+        <v>110.2525286518053</v>
       </c>
       <c r="V25" t="n">
-        <v>84.06254852375199</v>
+        <v>84.06254852375216</v>
       </c>
       <c r="W25" t="n">
-        <v>109.2294345943652</v>
+        <v>109.2294345943654</v>
       </c>
       <c r="X25" t="n">
-        <v>54.87453659016836</v>
+        <v>54.87453659016853</v>
       </c>
       <c r="Y25" t="n">
-        <v>45.74940434623605</v>
+        <v>45.74940434623622</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2555,10 @@
         <v>277.0092604360253</v>
       </c>
       <c r="C26" t="n">
-        <v>265.0205773937071</v>
+        <v>265.020577393707</v>
       </c>
       <c r="D26" t="n">
-        <v>256.001881438235</v>
+        <v>166.9364855248363</v>
       </c>
       <c r="E26" t="n">
         <v>277.7440190081405</v>
@@ -2570,10 +2570,10 @@
         <v>298.8325260922642</v>
       </c>
       <c r="H26" t="n">
-        <v>216.2294497816569</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>57.3561021300337</v>
+        <v>57.35610213003365</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.88509579130812</v>
+        <v>71.88509579130807</v>
       </c>
       <c r="T26" t="n">
-        <v>24.16973971529947</v>
+        <v>108.9489477341494</v>
       </c>
       <c r="U26" t="n">
-        <v>139.2413130842302</v>
+        <v>139.2413130842301</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>220.5156376762044</v>
       </c>
       <c r="W26" t="n">
         <v>245.8157371541613</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>58.63574390140238</v>
+        <v>58.63574390140148</v>
       </c>
       <c r="S27" t="n">
         <v>151.1067464546052</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.62597131072238</v>
+        <v>68.62597131072233</v>
       </c>
       <c r="C28" t="n">
-        <v>54.82596615612286</v>
+        <v>54.82596615612282</v>
       </c>
       <c r="D28" t="n">
-        <v>38.44733055370125</v>
+        <v>38.44733055370121</v>
       </c>
       <c r="E28" t="n">
-        <v>37.3950804094807</v>
+        <v>37.39508040948066</v>
       </c>
       <c r="F28" t="n">
-        <v>37.86200473766701</v>
+        <v>37.86200473766696</v>
       </c>
       <c r="G28" t="n">
-        <v>54.12927163178262</v>
+        <v>54.12927163178258</v>
       </c>
       <c r="H28" t="n">
-        <v>44.61896381776785</v>
+        <v>44.61896381776781</v>
       </c>
       <c r="I28" t="n">
-        <v>29.44355466213281</v>
+        <v>29.44355466213277</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59837805321936</v>
+        <v>34.59837805321931</v>
       </c>
       <c r="S28" t="n">
-        <v>98.34923509440681</v>
+        <v>98.34923509440677</v>
       </c>
       <c r="T28" t="n">
-        <v>117.7215487038539</v>
+        <v>117.7215487038538</v>
       </c>
       <c r="U28" t="n">
-        <v>171.2240878384012</v>
+        <v>171.2240878384011</v>
       </c>
       <c r="V28" t="n">
-        <v>145.034107710348</v>
+        <v>145.0341077103479</v>
       </c>
       <c r="W28" t="n">
         <v>170.2009937809612</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>277.0092604360253</v>
+        <v>209.9045603964624</v>
       </c>
       <c r="C29" t="n">
-        <v>265.0205773937071</v>
+        <v>265.020577393707</v>
       </c>
       <c r="D29" t="n">
         <v>256.001881438235</v>
@@ -2807,10 +2807,10 @@
         <v>298.8325260922642</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>216.2294497816569</v>
       </c>
       <c r="I29" t="n">
-        <v>57.35610213003369</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>91.76864761205943</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>139.2413130842302</v>
+        <v>139.2413130842301</v>
       </c>
       <c r="V29" t="n">
         <v>220.5156376762044</v>
@@ -2889,7 +2889,7 @@
         <v>98.85281891431895</v>
       </c>
       <c r="I30" t="n">
-        <v>67.39308974070319</v>
+        <v>67.39308974070435</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.62597131072238</v>
+        <v>68.62597131072235</v>
       </c>
       <c r="C31" t="n">
-        <v>54.82596615612286</v>
+        <v>54.82596615612283</v>
       </c>
       <c r="D31" t="n">
-        <v>38.44733055370125</v>
+        <v>38.44733055370122</v>
       </c>
       <c r="E31" t="n">
-        <v>37.3950804094807</v>
+        <v>37.39508040948067</v>
       </c>
       <c r="F31" t="n">
-        <v>37.86200473766701</v>
+        <v>37.86200473766698</v>
       </c>
       <c r="G31" t="n">
-        <v>54.12927163178262</v>
+        <v>54.12927163178259</v>
       </c>
       <c r="H31" t="n">
-        <v>44.61896381776785</v>
+        <v>44.61896381776782</v>
       </c>
       <c r="I31" t="n">
-        <v>29.44355466213281</v>
+        <v>29.44355466213278</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59837805321936</v>
+        <v>34.59837805321933</v>
       </c>
       <c r="S31" t="n">
-        <v>98.34923509440681</v>
+        <v>98.34923509440678</v>
       </c>
       <c r="T31" t="n">
         <v>117.7215487038539</v>
       </c>
       <c r="U31" t="n">
-        <v>171.2240878384012</v>
+        <v>171.2240878384011</v>
       </c>
       <c r="V31" t="n">
-        <v>145.034107710348</v>
+        <v>145.0341077103479</v>
       </c>
       <c r="W31" t="n">
         <v>170.2009937809612</v>
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>246.5261235545971</v>
+        <v>246.5261235545972</v>
       </c>
       <c r="C32" t="n">
-        <v>234.5374405122789</v>
+        <v>234.537440512279</v>
       </c>
       <c r="D32" t="n">
-        <v>225.5187445568069</v>
+        <v>225.518744556807</v>
       </c>
       <c r="E32" t="n">
-        <v>247.2608821267124</v>
+        <v>247.2608821267125</v>
       </c>
       <c r="F32" t="n">
-        <v>266.4326982146896</v>
+        <v>266.4326982146897</v>
       </c>
       <c r="G32" t="n">
         <v>268.3493892108361</v>
@@ -3047,7 +3047,7 @@
         <v>185.7463129002288</v>
       </c>
       <c r="I32" t="n">
-        <v>26.87296524860554</v>
+        <v>26.87296524860562</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>41.40195890987997</v>
+        <v>41.40195890988007</v>
       </c>
       <c r="T32" t="n">
-        <v>78.46581085272126</v>
+        <v>78.46581085272135</v>
       </c>
       <c r="U32" t="n">
-        <v>108.758176202802</v>
+        <v>108.7581762028021</v>
       </c>
       <c r="V32" t="n">
-        <v>190.0325007947763</v>
+        <v>190.0325007947764</v>
       </c>
       <c r="W32" t="n">
-        <v>215.3326002727332</v>
+        <v>215.3326002727333</v>
       </c>
       <c r="X32" t="n">
-        <v>234.6328585054798</v>
+        <v>234.6328585054799</v>
       </c>
       <c r="Y32" t="n">
         <v>246.0294563016786</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>58.63574390140148</v>
+        <v>58.63574390140238</v>
       </c>
       <c r="S33" t="n">
         <v>151.1067464546052</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>38.14283442929423</v>
+        <v>38.14283442929431</v>
       </c>
       <c r="C34" t="n">
-        <v>24.34282927469471</v>
+        <v>24.34282927469479</v>
       </c>
       <c r="D34" t="n">
-        <v>7.964193672273097</v>
+        <v>7.964193672273183</v>
       </c>
       <c r="E34" t="n">
-        <v>6.911943528052547</v>
+        <v>6.911943528052632</v>
       </c>
       <c r="F34" t="n">
-        <v>7.378867856238855</v>
+        <v>7.378867856238941</v>
       </c>
       <c r="G34" t="n">
-        <v>23.64613475035447</v>
+        <v>23.64613475035455</v>
       </c>
       <c r="H34" t="n">
-        <v>14.1358269363397</v>
+        <v>14.13582693633978</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.115241171791205</v>
+        <v>4.115241171791291</v>
       </c>
       <c r="S34" t="n">
-        <v>67.86609821297866</v>
+        <v>67.86609821297874</v>
       </c>
       <c r="T34" t="n">
-        <v>87.23841182242573</v>
+        <v>87.23841182242582</v>
       </c>
       <c r="U34" t="n">
-        <v>140.740950956973</v>
+        <v>140.7409509569731</v>
       </c>
       <c r="V34" t="n">
-        <v>114.5509708289198</v>
+        <v>114.5509708289199</v>
       </c>
       <c r="W34" t="n">
-        <v>139.7178568995331</v>
+        <v>139.7178568995332</v>
       </c>
       <c r="X34" t="n">
-        <v>85.36295889533619</v>
+        <v>85.36295889533628</v>
       </c>
       <c r="Y34" t="n">
-        <v>76.23782665140388</v>
+        <v>76.23782665140396</v>
       </c>
     </row>
     <row r="35">
@@ -3266,16 +3266,16 @@
         <v>224.9534317429506</v>
       </c>
       <c r="C35" t="n">
-        <v>212.9647487006324</v>
+        <v>212.9647487006323</v>
       </c>
       <c r="D35" t="n">
-        <v>203.9460527451604</v>
+        <v>203.9460527451603</v>
       </c>
       <c r="E35" t="n">
-        <v>225.6881903150659</v>
+        <v>225.6881903150658</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8600064030431</v>
+        <v>244.860006403043</v>
       </c>
       <c r="G35" t="n">
         <v>246.7766973991895</v>
@@ -3284,7 +3284,7 @@
         <v>164.1736210885822</v>
       </c>
       <c r="I35" t="n">
-        <v>5.300273436959031</v>
+        <v>5.300273436958975</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.82926709823347</v>
+        <v>19.82926709823342</v>
       </c>
       <c r="T35" t="n">
-        <v>56.89311904107476</v>
+        <v>56.8931190410747</v>
       </c>
       <c r="U35" t="n">
-        <v>87.18548439115551</v>
+        <v>87.18548439115546</v>
       </c>
       <c r="V35" t="n">
-        <v>168.4598089831298</v>
+        <v>168.4598089831297</v>
       </c>
       <c r="W35" t="n">
-        <v>193.7599084610867</v>
+        <v>193.7599084610866</v>
       </c>
       <c r="X35" t="n">
-        <v>213.0601666938333</v>
+        <v>213.0601666938332</v>
       </c>
       <c r="Y35" t="n">
         <v>224.456764490032</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>58.63574390140238</v>
+        <v>58.63574390140148</v>
       </c>
       <c r="S36" t="n">
         <v>151.1067464546052</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.57014261764772</v>
+        <v>16.57014261764766</v>
       </c>
       <c r="C37" t="n">
-        <v>2.770137463048201</v>
+        <v>2.770137463048144</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.07344293870796</v>
+        <v>2.073442938707903</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>46.29340640133215</v>
+        <v>46.29340640133209</v>
       </c>
       <c r="T37" t="n">
-        <v>65.66572001077922</v>
+        <v>65.66572001077917</v>
       </c>
       <c r="U37" t="n">
-        <v>119.1682591453265</v>
+        <v>119.1682591453264</v>
       </c>
       <c r="V37" t="n">
-        <v>92.97827901727331</v>
+        <v>92.97827901727325</v>
       </c>
       <c r="W37" t="n">
-        <v>118.1451650878866</v>
+        <v>118.1451650878865</v>
       </c>
       <c r="X37" t="n">
-        <v>63.79026708368968</v>
+        <v>63.79026708368963</v>
       </c>
       <c r="Y37" t="n">
-        <v>54.66513483975737</v>
+        <v>54.66513483975731</v>
       </c>
     </row>
     <row r="38">
@@ -3503,13 +3503,13 @@
         <v>224.9534317429506</v>
       </c>
       <c r="C38" t="n">
-        <v>212.9647487006324</v>
+        <v>212.9647487006323</v>
       </c>
       <c r="D38" t="n">
         <v>203.9460527451603</v>
       </c>
       <c r="E38" t="n">
-        <v>225.6881903150659</v>
+        <v>225.6881903150658</v>
       </c>
       <c r="F38" t="n">
         <v>244.860006403043</v>
@@ -3521,7 +3521,7 @@
         <v>164.1736210885822</v>
       </c>
       <c r="I38" t="n">
-        <v>5.300273436959003</v>
+        <v>5.300273436958975</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.82926709823343</v>
+        <v>19.8292670982334</v>
       </c>
       <c r="T38" t="n">
-        <v>56.89311904107473</v>
+        <v>56.8931190410747</v>
       </c>
       <c r="U38" t="n">
-        <v>87.18548439115548</v>
+        <v>87.18548439115546</v>
       </c>
       <c r="V38" t="n">
         <v>168.4598089831297</v>
@@ -3566,7 +3566,7 @@
         <v>193.7599084610866</v>
       </c>
       <c r="X38" t="n">
-        <v>213.0601666938333</v>
+        <v>213.0601666938332</v>
       </c>
       <c r="Y38" t="n">
         <v>224.456764490032</v>
@@ -3594,7 +3594,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>127.4323455528363</v>
+        <v>127.4323455528373</v>
       </c>
       <c r="H39" t="n">
         <v>98.85281891431895</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>58.63574390140238</v>
+        <v>58.63574390140148</v>
       </c>
       <c r="S39" t="n">
         <v>151.1067464546052</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.57014261764769</v>
+        <v>16.57014261764766</v>
       </c>
       <c r="C40" t="n">
-        <v>2.770137463048172</v>
+        <v>2.770137463048144</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.073442938707931</v>
+        <v>2.073442938707903</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>46.29340640133212</v>
+        <v>46.29340640133209</v>
       </c>
       <c r="T40" t="n">
-        <v>65.6657200107792</v>
+        <v>65.66572001077917</v>
       </c>
       <c r="U40" t="n">
-        <v>119.1682591453265</v>
+        <v>119.1682591453264</v>
       </c>
       <c r="V40" t="n">
-        <v>92.97827901727328</v>
+        <v>92.97827901727325</v>
       </c>
       <c r="W40" t="n">
         <v>118.1451650878865</v>
       </c>
       <c r="X40" t="n">
-        <v>63.79026708368966</v>
+        <v>63.79026708368963</v>
       </c>
       <c r="Y40" t="n">
-        <v>54.66513483975734</v>
+        <v>54.66513483975731</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.9534317429506</v>
+        <v>224.9534317429507</v>
       </c>
       <c r="C41" t="n">
         <v>212.9647487006324</v>
@@ -3752,13 +3752,13 @@
         <v>244.8600064030431</v>
       </c>
       <c r="G41" t="n">
-        <v>246.7766973991895</v>
+        <v>246.7766973991896</v>
       </c>
       <c r="H41" t="n">
         <v>164.1736210885823</v>
       </c>
       <c r="I41" t="n">
-        <v>5.300273436959031</v>
+        <v>5.30027343695906</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.82926709823347</v>
+        <v>19.82926709823349</v>
       </c>
       <c r="T41" t="n">
-        <v>56.89311904107476</v>
+        <v>56.89311904107479</v>
       </c>
       <c r="U41" t="n">
-        <v>87.18548439115551</v>
+        <v>87.18548439115554</v>
       </c>
       <c r="V41" t="n">
         <v>168.4598089831298</v>
@@ -3806,7 +3806,7 @@
         <v>213.0601666938333</v>
       </c>
       <c r="Y41" t="n">
-        <v>224.456764490032</v>
+        <v>224.4567644900321</v>
       </c>
     </row>
     <row r="42">
@@ -3831,7 +3831,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4323455528373</v>
+        <v>127.4323455528363</v>
       </c>
       <c r="H42" t="n">
         <v>98.85281891431895</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>58.63574390140148</v>
+        <v>58.63574390140238</v>
       </c>
       <c r="S42" t="n">
         <v>151.1067464546052</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.57014261764772</v>
+        <v>16.57014261764775</v>
       </c>
       <c r="C43" t="n">
-        <v>2.770137463048201</v>
+        <v>2.770137463048229</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.07344293870796</v>
+        <v>2.073442938707988</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>46.29340640133215</v>
+        <v>46.29340640133218</v>
       </c>
       <c r="T43" t="n">
-        <v>65.66572001077922</v>
+        <v>65.66572001077925</v>
       </c>
       <c r="U43" t="n">
         <v>119.1682591453265</v>
       </c>
       <c r="V43" t="n">
-        <v>92.97827901727331</v>
+        <v>92.97827901727334</v>
       </c>
       <c r="W43" t="n">
         <v>118.1451650878866</v>
       </c>
       <c r="X43" t="n">
-        <v>63.79026708368968</v>
+        <v>63.79026708368971</v>
       </c>
       <c r="Y43" t="n">
-        <v>54.66513483975737</v>
+        <v>54.6651348397574</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.9534317429506</v>
+        <v>224.9534317429507</v>
       </c>
       <c r="C44" t="n">
         <v>212.9647487006324</v>
       </c>
       <c r="D44" t="n">
-        <v>203.9460527451603</v>
+        <v>203.9460527451604</v>
       </c>
       <c r="E44" t="n">
         <v>225.6881903150659</v>
       </c>
       <c r="F44" t="n">
-        <v>244.860006403043</v>
+        <v>244.8600064030431</v>
       </c>
       <c r="G44" t="n">
-        <v>246.7766973991895</v>
+        <v>246.7766973991896</v>
       </c>
       <c r="H44" t="n">
-        <v>164.1736210885822</v>
+        <v>164.1736210885823</v>
       </c>
       <c r="I44" t="n">
-        <v>5.300273436959016</v>
+        <v>5.300273436959073</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.82926709823344</v>
+        <v>19.8292670982335</v>
       </c>
       <c r="T44" t="n">
-        <v>56.89311904107473</v>
+        <v>56.89311904107479</v>
       </c>
       <c r="U44" t="n">
-        <v>87.18548439115548</v>
+        <v>87.18548439115554</v>
       </c>
       <c r="V44" t="n">
-        <v>168.4598089831305</v>
+        <v>168.4598089831291</v>
       </c>
       <c r="W44" t="n">
-        <v>193.7599084610866</v>
+        <v>193.7599084610867</v>
       </c>
       <c r="X44" t="n">
         <v>213.0601666938333</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.456764490032</v>
+        <v>224.4567644900321</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4071,7 @@
         <v>127.4323455528363</v>
       </c>
       <c r="H45" t="n">
-        <v>98.85281891431895</v>
+        <v>98.85281891432001</v>
       </c>
       <c r="I45" t="n">
         <v>67.39308974070319</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>58.63574390140238</v>
+        <v>58.63574390140148</v>
       </c>
       <c r="S45" t="n">
         <v>151.1067464546052</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.57014261764769</v>
+        <v>16.57014261764775</v>
       </c>
       <c r="C46" t="n">
-        <v>2.770137463048172</v>
+        <v>2.770137463048229</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.073442938707931</v>
+        <v>2.073442938707988</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>46.29340640133212</v>
+        <v>46.29340640133218</v>
       </c>
       <c r="T46" t="n">
-        <v>65.6657200107792</v>
+        <v>65.66572001077925</v>
       </c>
       <c r="U46" t="n">
         <v>119.1682591453265</v>
       </c>
       <c r="V46" t="n">
-        <v>92.97827901727328</v>
+        <v>92.97827901727334</v>
       </c>
       <c r="W46" t="n">
-        <v>118.1451650878865</v>
+        <v>118.1451650878866</v>
       </c>
       <c r="X46" t="n">
-        <v>63.79026708368966</v>
+        <v>63.79026708368971</v>
       </c>
       <c r="Y46" t="n">
-        <v>54.66513483975734</v>
+        <v>54.6651348397574</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1273.18422009929</v>
+        <v>1383.255117024199</v>
       </c>
       <c r="C2" t="n">
-        <v>1273.18422009929</v>
+        <v>1383.255117024199</v>
       </c>
       <c r="D2" t="n">
-        <v>1273.18422009929</v>
+        <v>1383.255117024199</v>
       </c>
       <c r="E2" t="n">
-        <v>1273.18422009929</v>
+        <v>1374.785517177481</v>
       </c>
       <c r="F2" t="n">
         <v>960.6343264876516</v>
@@ -4325,55 +4325,55 @@
         <v>211.7090655391489</v>
       </c>
       <c r="I2" t="n">
-        <v>38.89186674794489</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="J2" t="n">
-        <v>38.89186674794489</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="K2" t="n">
-        <v>279.0322387927276</v>
+        <v>197.5437047560726</v>
       </c>
       <c r="L2" t="n">
-        <v>545.4290778410166</v>
+        <v>545.4290778410189</v>
       </c>
       <c r="M2" t="n">
-        <v>938.6682440941045</v>
+        <v>938.6682440941067</v>
       </c>
       <c r="N2" t="n">
-        <v>1316.99960278182</v>
+        <v>1316.999602781822</v>
       </c>
       <c r="O2" t="n">
-        <v>1622.004187254654</v>
+        <v>1622.004187254656</v>
       </c>
       <c r="P2" t="n">
-        <v>1850.161083710707</v>
+        <v>1850.16108371071</v>
       </c>
       <c r="Q2" t="n">
-        <v>1944.593337397244</v>
+        <v>1944.593337397247</v>
       </c>
       <c r="R2" t="n">
-        <v>1853.955050893098</v>
+        <v>1944.593337397247</v>
       </c>
       <c r="S2" t="n">
-        <v>1666.726075523452</v>
+        <v>1944.593337397247</v>
       </c>
       <c r="T2" t="n">
-        <v>1666.726075523452</v>
+        <v>1720.234391128258</v>
       </c>
       <c r="U2" t="n">
-        <v>1666.726075523452</v>
+        <v>1720.234391128258</v>
       </c>
       <c r="V2" t="n">
-        <v>1666.726075523452</v>
+        <v>1383.255117024199</v>
       </c>
       <c r="W2" t="n">
-        <v>1666.726075523452</v>
+        <v>1383.255117024199</v>
       </c>
       <c r="X2" t="n">
-        <v>1666.726075523452</v>
+        <v>1383.255117024199</v>
       </c>
       <c r="Y2" t="n">
-        <v>1273.18422009929</v>
+        <v>1383.255117024199</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>818.266769796687</v>
+        <v>918.2046272499889</v>
       </c>
       <c r="C3" t="n">
-        <v>656.5630970376417</v>
+        <v>756.5009544909436</v>
       </c>
       <c r="D3" t="n">
-        <v>517.7244600278538</v>
+        <v>617.6623174811557</v>
       </c>
       <c r="E3" t="n">
-        <v>370.696450084725</v>
+        <v>470.634307538027</v>
       </c>
       <c r="F3" t="n">
-        <v>236.0026520345993</v>
+        <v>335.9405094879013</v>
       </c>
       <c r="G3" t="n">
-        <v>107.2741520578839</v>
+        <v>207.2120095111859</v>
       </c>
       <c r="H3" t="n">
         <v>107.2741520578839</v>
       </c>
       <c r="I3" t="n">
-        <v>38.89186674794489</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.14601328105104</v>
+        <v>99.14601328105107</v>
       </c>
       <c r="K3" t="n">
-        <v>328.6365658412397</v>
+        <v>328.6365658412398</v>
       </c>
       <c r="L3" t="n">
-        <v>694.4584110113553</v>
+        <v>328.6365658412398</v>
       </c>
       <c r="M3" t="n">
-        <v>694.4584110113553</v>
+        <v>809.9234168470582</v>
       </c>
       <c r="N3" t="n">
-        <v>1092.525837551802</v>
+        <v>1291.210267852877</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.725788335953</v>
+        <v>1683.410218637028</v>
       </c>
       <c r="P3" t="n">
-        <v>1786.82170761165</v>
+        <v>1786.821707611652</v>
       </c>
       <c r="Q3" t="n">
-        <v>1944.593337397244</v>
+        <v>1944.593337397247</v>
       </c>
       <c r="R3" t="n">
-        <v>1884.80906849219</v>
+        <v>1884.809068492192</v>
       </c>
       <c r="S3" t="n">
-        <v>1732.00958150493</v>
+        <v>1884.809068492192</v>
       </c>
       <c r="T3" t="n">
-        <v>1543.324477670915</v>
+        <v>1884.809068492192</v>
       </c>
       <c r="U3" t="n">
-        <v>1324.829685269226</v>
+        <v>1666.314276090503</v>
       </c>
       <c r="V3" t="n">
-        <v>1096.43406271756</v>
+        <v>1468.062384503876</v>
       </c>
       <c r="W3" t="n">
-        <v>855.1181939508696</v>
+        <v>1468.062384503876</v>
       </c>
       <c r="X3" t="n">
-        <v>818.266769796687</v>
+        <v>1270.145396381671</v>
       </c>
       <c r="Y3" t="n">
-        <v>818.266769796687</v>
+        <v>1077.62407003125</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>343.9727741588633</v>
+        <v>344.4444148944051</v>
       </c>
       <c r="C4" t="n">
-        <v>343.9727741588633</v>
+        <v>344.4444148944051</v>
       </c>
       <c r="D4" t="n">
-        <v>190.9008809866261</v>
+        <v>191.3725217221678</v>
       </c>
       <c r="E4" t="n">
-        <v>38.89186674794489</v>
+        <v>191.3725217221678</v>
       </c>
       <c r="F4" t="n">
-        <v>38.89186674794489</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="G4" t="n">
-        <v>38.89186674794489</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="H4" t="n">
-        <v>38.89186674794489</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="I4" t="n">
-        <v>38.89186674794489</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="J4" t="n">
-        <v>38.89186674794489</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="K4" t="n">
-        <v>72.4960544925883</v>
+        <v>72.49605449258834</v>
       </c>
       <c r="L4" t="n">
         <v>173.1031338928478</v>
       </c>
       <c r="M4" t="n">
-        <v>291.0966400204495</v>
+        <v>291.0966400204496</v>
       </c>
       <c r="N4" t="n">
         <v>409.5189817700499</v>
       </c>
       <c r="O4" t="n">
-        <v>507.9826282657395</v>
+        <v>507.9826282657396</v>
       </c>
       <c r="P4" t="n">
         <v>570.9511119938774</v>
@@ -4513,25 +4513,25 @@
         <v>570.9511119938774</v>
       </c>
       <c r="S4" t="n">
-        <v>570.9511119938774</v>
+        <v>357.2413493975649</v>
       </c>
       <c r="T4" t="n">
-        <v>570.9511119938774</v>
+        <v>357.2413493975649</v>
       </c>
       <c r="U4" t="n">
-        <v>570.9511119938774</v>
+        <v>357.2413493975649</v>
       </c>
       <c r="V4" t="n">
-        <v>570.9511119938774</v>
+        <v>357.2413493975649</v>
       </c>
       <c r="W4" t="n">
-        <v>570.9511119938774</v>
+        <v>357.2413493975649</v>
       </c>
       <c r="X4" t="n">
-        <v>343.9727741588633</v>
+        <v>357.2413493975649</v>
       </c>
       <c r="Y4" t="n">
-        <v>343.9727741588633</v>
+        <v>357.2413493975649</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>988.6411581339516</v>
+        <v>1374.785517177481</v>
       </c>
       <c r="C5" t="n">
-        <v>606.7073994667589</v>
+        <v>1374.785517177481</v>
       </c>
       <c r="D5" t="n">
-        <v>233.8834346939825</v>
+        <v>1374.785517177481</v>
       </c>
       <c r="E5" t="n">
-        <v>233.8834346939825</v>
+        <v>1374.785517177481</v>
       </c>
       <c r="F5" t="n">
-        <v>223.7726480445568</v>
+        <v>960.6343264876516</v>
       </c>
       <c r="G5" t="n">
-        <v>211.7090655391489</v>
+        <v>544.5303399418397</v>
       </c>
       <c r="H5" t="n">
         <v>211.7090655391489</v>
       </c>
       <c r="I5" t="n">
-        <v>38.89186674794489</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="J5" t="n">
-        <v>38.89186674794489</v>
+        <v>110.8904110207506</v>
       </c>
       <c r="K5" t="n">
-        <v>279.0322387927276</v>
+        <v>351.0307830655333</v>
       </c>
       <c r="L5" t="n">
-        <v>626.9176118776738</v>
+        <v>698.9161561504795</v>
       </c>
       <c r="M5" t="n">
-        <v>1020.156778130762</v>
+        <v>1092.155322403567</v>
       </c>
       <c r="N5" t="n">
-        <v>1398.488136818477</v>
+        <v>1470.486681091283</v>
       </c>
       <c r="O5" t="n">
-        <v>1703.492721291311</v>
+        <v>1775.491265564117</v>
       </c>
       <c r="P5" t="n">
-        <v>1931.649617747364</v>
+        <v>1944.593337397247</v>
       </c>
       <c r="Q5" t="n">
-        <v>1944.593337397244</v>
+        <v>1944.593337397247</v>
       </c>
       <c r="R5" t="n">
-        <v>1853.955050893098</v>
+        <v>1944.593337397247</v>
       </c>
       <c r="S5" t="n">
-        <v>1666.726075523452</v>
+        <v>1944.593337397247</v>
       </c>
       <c r="T5" t="n">
-        <v>1666.726075523452</v>
+        <v>1944.593337397247</v>
       </c>
       <c r="U5" t="n">
-        <v>1666.726075523452</v>
+        <v>1944.593337397247</v>
       </c>
       <c r="V5" t="n">
-        <v>1666.726075523452</v>
+        <v>1944.593337397247</v>
       </c>
       <c r="W5" t="n">
-        <v>1666.726075523452</v>
+        <v>1756.815657655988</v>
       </c>
       <c r="X5" t="n">
-        <v>1382.684697651971</v>
+        <v>1374.785517177481</v>
       </c>
       <c r="Y5" t="n">
-        <v>1382.684697651971</v>
+        <v>1374.785517177481</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>918.2046272499889</v>
+        <v>305.2604366969843</v>
       </c>
       <c r="C6" t="n">
-        <v>756.5009544909436</v>
+        <v>143.556763937939</v>
       </c>
       <c r="D6" t="n">
-        <v>617.6623174811557</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="E6" t="n">
-        <v>470.634307538027</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="F6" t="n">
-        <v>335.9405094879013</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="G6" t="n">
-        <v>207.2120095111858</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="H6" t="n">
-        <v>107.2741520578839</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="I6" t="n">
-        <v>38.89186674794489</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.14601328105104</v>
+        <v>99.14601328105107</v>
       </c>
       <c r="K6" t="n">
-        <v>99.14601328105104</v>
+        <v>328.6365658412398</v>
       </c>
       <c r="L6" t="n">
-        <v>464.9678584511666</v>
+        <v>694.4584110113553</v>
       </c>
       <c r="M6" t="n">
-        <v>946.2547094569846</v>
+        <v>1175.745262017174</v>
       </c>
       <c r="N6" t="n">
-        <v>1427.541560462803</v>
+        <v>1642.497418121549</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.725788335953</v>
+        <v>1642.497418121549</v>
       </c>
       <c r="P6" t="n">
-        <v>1786.82170761165</v>
+        <v>1944.593337397247</v>
       </c>
       <c r="Q6" t="n">
-        <v>1944.593337397244</v>
+        <v>1944.593337397247</v>
       </c>
       <c r="R6" t="n">
-        <v>1884.80906849219</v>
+        <v>1884.809068492192</v>
       </c>
       <c r="S6" t="n">
-        <v>1884.80906849219</v>
+        <v>1732.009581504933</v>
       </c>
       <c r="T6" t="n">
-        <v>1696.123964658175</v>
+        <v>1543.324477670918</v>
       </c>
       <c r="U6" t="n">
-        <v>1696.123964658175</v>
+        <v>1324.829685269228</v>
       </c>
       <c r="V6" t="n">
-        <v>1696.123964658175</v>
+        <v>1096.434062717562</v>
       </c>
       <c r="W6" t="n">
-        <v>1468.062384503876</v>
+        <v>855.1181939508718</v>
       </c>
       <c r="X6" t="n">
-        <v>1270.145396381671</v>
+        <v>657.2012058286664</v>
       </c>
       <c r="Y6" t="n">
-        <v>1077.62407003125</v>
+        <v>464.6798794782452</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.89186674794489</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="C7" t="n">
-        <v>38.89186674794489</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="D7" t="n">
-        <v>38.89186674794489</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="E7" t="n">
-        <v>38.89186674794489</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="F7" t="n">
-        <v>38.89186674794489</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="G7" t="n">
-        <v>38.89186674794489</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="H7" t="n">
-        <v>38.89186674794489</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="I7" t="n">
-        <v>38.89186674794489</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="J7" t="n">
-        <v>38.89186674794489</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="K7" t="n">
-        <v>72.4960544925883</v>
+        <v>72.49605449258834</v>
       </c>
       <c r="L7" t="n">
         <v>173.1031338928478</v>
       </c>
       <c r="M7" t="n">
-        <v>291.0966400204495</v>
+        <v>291.0966400204496</v>
       </c>
       <c r="N7" t="n">
         <v>409.5189817700499</v>
       </c>
       <c r="O7" t="n">
-        <v>507.9826282657395</v>
+        <v>507.9826282657396</v>
       </c>
       <c r="P7" t="n">
         <v>570.9511119938774</v>
@@ -4762,13 +4762,13 @@
         <v>310.2158075523</v>
       </c>
       <c r="W7" t="n">
-        <v>38.89186674794489</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="X7" t="n">
-        <v>38.89186674794489</v>
+        <v>38.89186674794493</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.89186674794489</v>
+        <v>38.89186674794493</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.5569159062094</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="C8" t="n">
-        <v>262.5569159062094</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="D8" t="n">
-        <v>262.5569159062094</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="E8" t="n">
-        <v>262.5569159062094</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F8" t="n">
-        <v>252.4461292567838</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G8" t="n">
-        <v>240.3825467513759</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
         <v>42.02425610119923</v>
@@ -4829,25 +4829,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T8" t="n">
-        <v>1598.98659691718</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U8" t="n">
-        <v>1344.101260631174</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V8" t="n">
-        <v>1007.121986527115</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W8" t="n">
-        <v>644.5870563847161</v>
+        <v>1648.039588413416</v>
       </c>
       <c r="X8" t="n">
-        <v>262.5569159062094</v>
+        <v>1266.009447934909</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.5569159062094</v>
+        <v>872.4675925107471</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>792.6085166265278</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C9" t="n">
-        <v>630.9048438674826</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D9" t="n">
-        <v>492.0662068576946</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E9" t="n">
-        <v>345.0381969145658</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>210.3443988644402</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
         <v>210.3443988644402</v>
@@ -4905,28 +4905,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>2030.672557600461</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T9" t="n">
-        <v>2030.672557600461</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="U9" t="n">
-        <v>1812.177765198771</v>
+        <v>1822.933743753217</v>
       </c>
       <c r="V9" t="n">
-        <v>1583.782142647105</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W9" t="n">
-        <v>1342.466273880415</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X9" t="n">
-        <v>1144.54928575821</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y9" t="n">
-        <v>952.0279594077888</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="10">
@@ -4939,19 +4939,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="C10" t="n">
-        <v>574.0835013471317</v>
+        <v>404.4675318088119</v>
       </c>
       <c r="D10" t="n">
-        <v>574.0835013471317</v>
+        <v>251.3956386365747</v>
       </c>
       <c r="E10" t="n">
-        <v>422.0744871084505</v>
+        <v>99.38662439789348</v>
       </c>
       <c r="F10" t="n">
-        <v>269.5938321342276</v>
+        <v>99.38662439789348</v>
       </c>
       <c r="G10" t="n">
-        <v>100.6740835020776</v>
+        <v>99.38662439789348</v>
       </c>
       <c r="H10" t="n">
         <v>42.02425610119923</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1750.237533842598</v>
+        <v>1615.45054832087</v>
       </c>
       <c r="C11" t="n">
-        <v>1480.169581384977</v>
+        <v>1419.863725153288</v>
       </c>
       <c r="D11" t="n">
-        <v>1219.211422821772</v>
+        <v>1158.905566590083</v>
       </c>
       <c r="E11" t="n">
-        <v>936.2915091374498</v>
+        <v>875.9856529057606</v>
       </c>
       <c r="F11" t="n">
-        <v>634.0061246571914</v>
+        <v>573.7002684255021</v>
       </c>
       <c r="G11" t="n">
-        <v>329.784688665674</v>
+        <v>269.4788324339854</v>
       </c>
       <c r="H11" t="n">
-        <v>109.0007034929517</v>
+        <v>48.69484726126313</v>
       </c>
       <c r="I11" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126313</v>
       </c>
       <c r="J11" t="n">
-        <v>189.0524891353129</v>
+        <v>231.7259425370002</v>
       </c>
       <c r="K11" t="n">
-        <v>540.9200954117318</v>
+        <v>473.9538721474183</v>
       </c>
       <c r="L11" t="n">
-        <v>891.3952682513159</v>
+        <v>824.4290449870023</v>
       </c>
       <c r="M11" t="n">
-        <v>1287.516085732429</v>
+        <v>1220.549862468115</v>
       </c>
       <c r="N11" t="n">
-        <v>1778.415400443713</v>
+        <v>1601.809500513399</v>
       </c>
       <c r="O11" t="n">
-        <v>2086.185076077672</v>
+        <v>1909.579176147358</v>
       </c>
       <c r="P11" t="n">
-        <v>2316.7019138671</v>
+        <v>2207.062237201102</v>
       </c>
       <c r="Q11" t="n">
-        <v>2412.906385212834</v>
+        <v>2412.906385212837</v>
       </c>
       <c r="R11" t="n">
-        <v>2434.742363063154</v>
+        <v>2434.742363063157</v>
       </c>
       <c r="S11" t="n">
-        <v>2434.742363063154</v>
+        <v>2434.742363063157</v>
       </c>
       <c r="T11" t="n">
-        <v>2322.322521372762</v>
+        <v>2322.322521372765</v>
       </c>
       <c r="U11" t="n">
-        <v>2302.077917326124</v>
+        <v>2179.304330843908</v>
       </c>
       <c r="V11" t="n">
-        <v>2302.077917326124</v>
+        <v>2179.304330843908</v>
       </c>
       <c r="W11" t="n">
-        <v>2302.077917326124</v>
+        <v>2179.304330843908</v>
       </c>
       <c r="X11" t="n">
-        <v>2031.913583057189</v>
+        <v>2179.304330843908</v>
       </c>
       <c r="Y11" t="n">
-        <v>1750.237533842598</v>
+        <v>1897.628281629317</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>796.1688174088081</v>
+        <v>796.1688174088108</v>
       </c>
       <c r="C12" t="n">
-        <v>634.4651446497628</v>
+        <v>634.4651446497655</v>
       </c>
       <c r="D12" t="n">
-        <v>495.6265076399749</v>
+        <v>495.6265076399776</v>
       </c>
       <c r="E12" t="n">
-        <v>348.5984976968461</v>
+        <v>348.5984976968488</v>
       </c>
       <c r="F12" t="n">
-        <v>213.9046996467204</v>
+        <v>213.9046996467232</v>
       </c>
       <c r="G12" t="n">
-        <v>116.7686752821754</v>
+        <v>148.5461794979489</v>
       </c>
       <c r="H12" t="n">
-        <v>116.7686752821754</v>
+        <v>48.69484726126313</v>
       </c>
       <c r="I12" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126313</v>
       </c>
       <c r="J12" t="n">
-        <v>109.7785802073006</v>
+        <v>48.69484726126313</v>
       </c>
       <c r="K12" t="n">
-        <v>340.6870280817689</v>
+        <v>279.6032951357314</v>
       </c>
       <c r="L12" t="n">
-        <v>708.4154084810832</v>
+        <v>647.3316755350459</v>
       </c>
       <c r="M12" t="n">
-        <v>1195.673598678327</v>
+        <v>1134.58986573229</v>
       </c>
       <c r="N12" t="n">
-        <v>1709.222966295364</v>
+        <v>1577.788117460764</v>
       </c>
       <c r="O12" t="n">
-        <v>2103.512076085239</v>
+        <v>1972.077227250639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.284729646541</v>
+        <v>2275.849880811941</v>
       </c>
       <c r="Q12" t="n">
-        <v>2434.742363063154</v>
+        <v>2434.742363063157</v>
       </c>
       <c r="R12" t="n">
-        <v>2375.514338920324</v>
+        <v>2375.514338920327</v>
       </c>
       <c r="S12" t="n">
-        <v>2222.88126169345</v>
+        <v>2222.881261693453</v>
       </c>
       <c r="T12" t="n">
-        <v>2034.232268973909</v>
+        <v>2034.232268973911</v>
       </c>
       <c r="U12" t="n">
-        <v>1815.738065981051</v>
+        <v>1815.738065981054</v>
       </c>
       <c r="V12" t="n">
-        <v>1587.342443429385</v>
+        <v>1587.342443429388</v>
       </c>
       <c r="W12" t="n">
-        <v>1346.026574662696</v>
+        <v>1346.026574662698</v>
       </c>
       <c r="X12" t="n">
-        <v>1148.10958654049</v>
+        <v>1148.109586540493</v>
       </c>
       <c r="Y12" t="n">
-        <v>955.588260190069</v>
+        <v>955.5882601900718</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>365.0070096289614</v>
+        <v>308.4947884024443</v>
       </c>
       <c r="C13" t="n">
-        <v>307.2568463002129</v>
+        <v>250.7446250736959</v>
       </c>
       <c r="D13" t="n">
-        <v>266.0507593375469</v>
+        <v>250.7446250736959</v>
       </c>
       <c r="E13" t="n">
-        <v>225.9075513084371</v>
+        <v>210.601417044586</v>
       </c>
       <c r="F13" t="n">
-        <v>185.2927025437855</v>
+        <v>169.9865682799343</v>
       </c>
       <c r="G13" t="n">
-        <v>128.246271057805</v>
+        <v>128.2462710578054</v>
       </c>
       <c r="H13" t="n">
-        <v>80.80621110113266</v>
+        <v>80.80621110113275</v>
       </c>
       <c r="I13" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126313</v>
       </c>
       <c r="J13" t="n">
-        <v>99.99288024475965</v>
+        <v>99.9928802447597</v>
       </c>
       <c r="K13" t="n">
-        <v>244.0920135036543</v>
+        <v>244.0920135036544</v>
       </c>
       <c r="L13" t="n">
         <v>455.4332192369168</v>
       </c>
       <c r="M13" t="n">
-        <v>684.2203457512067</v>
+        <v>684.2203457512065</v>
       </c>
       <c r="N13" t="n">
-        <v>913.4088696850081</v>
+        <v>913.408869685008</v>
       </c>
       <c r="O13" t="n">
         <v>1122.552703022958</v>
       </c>
       <c r="P13" t="n">
-        <v>1296.051199626575</v>
+        <v>1296.051199626574</v>
       </c>
       <c r="Q13" t="n">
         <v>1368.53685068078</v>
       </c>
       <c r="R13" t="n">
-        <v>1368.53685068078</v>
+        <v>1331.218594526681</v>
       </c>
       <c r="S13" t="n">
-        <v>1286.017754506991</v>
+        <v>1229.505533280474</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.736699715888</v>
+        <v>1108.224478489371</v>
       </c>
       <c r="U13" t="n">
-        <v>989.4126761020102</v>
+        <v>932.9004548754934</v>
       </c>
       <c r="V13" t="n">
-        <v>840.5431778700041</v>
+        <v>784.0309566434873</v>
       </c>
       <c r="W13" t="n">
-        <v>666.2525825969745</v>
+        <v>609.7403613704577</v>
       </c>
       <c r="X13" t="n">
-        <v>546.8659247019216</v>
+        <v>490.3537034754045</v>
       </c>
       <c r="Y13" t="n">
-        <v>436.6965721037699</v>
+        <v>380.1843508772529</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1019.635482714411</v>
+        <v>1545.368669994752</v>
       </c>
       <c r="C14" t="n">
-        <v>1019.635482714411</v>
+        <v>1275.30071753713</v>
       </c>
       <c r="D14" t="n">
-        <v>1019.635482714411</v>
+        <v>1219.211422821772</v>
       </c>
       <c r="E14" t="n">
-        <v>936.2915091374497</v>
+        <v>936.2915091374499</v>
       </c>
       <c r="F14" t="n">
-        <v>634.0061246571913</v>
+        <v>634.0061246571915</v>
       </c>
       <c r="G14" t="n">
-        <v>329.7846886656739</v>
+        <v>329.784688665674</v>
       </c>
       <c r="H14" t="n">
-        <v>109.0007034929517</v>
+        <v>109.0007034929518</v>
       </c>
       <c r="I14" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126313</v>
       </c>
       <c r="J14" t="n">
-        <v>189.052489135313</v>
+        <v>122.0862658709995</v>
       </c>
       <c r="K14" t="n">
-        <v>431.2804187457311</v>
+        <v>364.3141954814176</v>
       </c>
       <c r="L14" t="n">
-        <v>891.3952682513159</v>
+        <v>714.7893683210016</v>
       </c>
       <c r="M14" t="n">
-        <v>1287.516085732429</v>
+        <v>1177.876409066431</v>
       </c>
       <c r="N14" t="n">
-        <v>1778.415400443713</v>
+        <v>1668.775723777715</v>
       </c>
       <c r="O14" t="n">
-        <v>2086.185076077672</v>
+        <v>1976.545399411674</v>
       </c>
       <c r="P14" t="n">
-        <v>2316.7019138671</v>
+        <v>2207.062237201102</v>
       </c>
       <c r="Q14" t="n">
-        <v>2412.906385212834</v>
+        <v>2412.906385212837</v>
       </c>
       <c r="R14" t="n">
-        <v>2434.742363063154</v>
+        <v>2434.742363063157</v>
       </c>
       <c r="S14" t="n">
-        <v>2359.760755658461</v>
+        <v>2434.742363063157</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.340913968069</v>
+        <v>2322.322521372765</v>
       </c>
       <c r="U14" t="n">
-        <v>2104.322723439212</v>
+        <v>2322.322521372765</v>
       </c>
       <c r="V14" t="n">
-        <v>2104.322723439212</v>
+        <v>2097.209053478278</v>
       </c>
       <c r="W14" t="n">
-        <v>1853.653599506385</v>
+        <v>2097.209053478278</v>
       </c>
       <c r="X14" t="n">
-        <v>1583.489265237449</v>
+        <v>1827.044719209342</v>
       </c>
       <c r="Y14" t="n">
-        <v>1301.813216022859</v>
+        <v>1545.368669994752</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>855.3968415516374</v>
+        <v>927.6036662434097</v>
       </c>
       <c r="C15" t="n">
-        <v>693.6931687925921</v>
+        <v>765.8999934843645</v>
       </c>
       <c r="D15" t="n">
-        <v>554.8545317828042</v>
+        <v>627.0613564745765</v>
       </c>
       <c r="E15" t="n">
-        <v>407.8265218396754</v>
+        <v>480.0333465314478</v>
       </c>
       <c r="F15" t="n">
-        <v>273.1327237895498</v>
+        <v>345.3395484813221</v>
       </c>
       <c r="G15" t="n">
-        <v>148.5461794979489</v>
+        <v>216.6200075188613</v>
       </c>
       <c r="H15" t="n">
-        <v>48.69484726126308</v>
+        <v>116.7686752821755</v>
       </c>
       <c r="I15" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126313</v>
       </c>
       <c r="J15" t="n">
-        <v>109.7785802073006</v>
+        <v>109.7785802073007</v>
       </c>
       <c r="K15" t="n">
-        <v>340.6870280817689</v>
+        <v>340.687028081769</v>
       </c>
       <c r="L15" t="n">
-        <v>708.4154084810832</v>
+        <v>708.4154084810834</v>
       </c>
       <c r="M15" t="n">
-        <v>1195.673598678327</v>
+        <v>1195.673598678328</v>
       </c>
       <c r="N15" t="n">
-        <v>1709.222966295364</v>
+        <v>1709.222966295365</v>
       </c>
       <c r="O15" t="n">
         <v>2103.512076085239</v>
@@ -5376,31 +5376,31 @@
         <v>2407.284729646541</v>
       </c>
       <c r="Q15" t="n">
-        <v>2434.742363063154</v>
+        <v>2434.742363063157</v>
       </c>
       <c r="R15" t="n">
-        <v>2434.742363063154</v>
+        <v>2434.742363063157</v>
       </c>
       <c r="S15" t="n">
-        <v>2282.10928583628</v>
+        <v>2354.316110528052</v>
       </c>
       <c r="T15" t="n">
-        <v>2093.460293116738</v>
+        <v>2165.66711780851</v>
       </c>
       <c r="U15" t="n">
-        <v>1874.966090123881</v>
+        <v>1947.172914815653</v>
       </c>
       <c r="V15" t="n">
-        <v>1646.570467572215</v>
+        <v>1718.777292263987</v>
       </c>
       <c r="W15" t="n">
-        <v>1405.254598805525</v>
+        <v>1477.461423497297</v>
       </c>
       <c r="X15" t="n">
-        <v>1207.33761068332</v>
+        <v>1279.544435375092</v>
       </c>
       <c r="Y15" t="n">
-        <v>1014.816284332898</v>
+        <v>1087.023109024671</v>
       </c>
     </row>
     <row r="16">
@@ -5422,31 +5422,31 @@
         <v>225.9075513084374</v>
       </c>
       <c r="F16" t="n">
-        <v>185.2927025437858</v>
+        <v>185.2927025437857</v>
       </c>
       <c r="G16" t="n">
-        <v>128.2462710578053</v>
+        <v>128.2462710578054</v>
       </c>
       <c r="H16" t="n">
-        <v>80.80621110113265</v>
+        <v>80.80621110113272</v>
       </c>
       <c r="I16" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126313</v>
       </c>
       <c r="J16" t="n">
-        <v>99.99288024475959</v>
+        <v>99.9928802447597</v>
       </c>
       <c r="K16" t="n">
-        <v>244.0920135036542</v>
+        <v>244.0920135036544</v>
       </c>
       <c r="L16" t="n">
-        <v>455.4332192369167</v>
+        <v>455.4332192369169</v>
       </c>
       <c r="M16" t="n">
-        <v>684.2203457512064</v>
+        <v>684.2203457512067</v>
       </c>
       <c r="N16" t="n">
-        <v>913.4088696850079</v>
+        <v>913.408869685008</v>
       </c>
       <c r="O16" t="n">
         <v>1122.552703022958</v>
@@ -5461,25 +5461,25 @@
         <v>1331.218594526681</v>
       </c>
       <c r="S16" t="n">
-        <v>1229.505533280475</v>
+        <v>1286.017754506991</v>
       </c>
       <c r="T16" t="n">
-        <v>1108.224478489371</v>
+        <v>1164.736699715888</v>
       </c>
       <c r="U16" t="n">
-        <v>932.9004548754934</v>
+        <v>989.4126761020104</v>
       </c>
       <c r="V16" t="n">
-        <v>784.0309566434873</v>
+        <v>840.5431778700043</v>
       </c>
       <c r="W16" t="n">
-        <v>609.7403613704578</v>
+        <v>666.2525825969748</v>
       </c>
       <c r="X16" t="n">
-        <v>490.353703475405</v>
+        <v>546.8659247019219</v>
       </c>
       <c r="Y16" t="n">
-        <v>436.6965721037702</v>
+        <v>436.6965721037703</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1100.074559870794</v>
       </c>
       <c r="D17" t="n">
-        <v>903.0742343640879</v>
+        <v>903.0742343640875</v>
       </c>
       <c r="E17" t="n">
-        <v>684.1121537362651</v>
+        <v>684.1121537362645</v>
       </c>
       <c r="F17" t="n">
-        <v>445.7846023125057</v>
+        <v>445.7846023125051</v>
       </c>
       <c r="G17" t="n">
-        <v>205.5209993774862</v>
+        <v>205.5209993774864</v>
       </c>
       <c r="H17" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126312</v>
       </c>
       <c r="I17" t="n">
-        <v>52.27414974725973</v>
+        <v>52.27414974725961</v>
       </c>
       <c r="J17" t="n">
-        <v>125.6655683569961</v>
+        <v>125.6655683569959</v>
       </c>
       <c r="K17" t="n">
-        <v>367.8934979674142</v>
+        <v>367.8934979674141</v>
       </c>
       <c r="L17" t="n">
         <v>718.3686708069981</v>
@@ -5525,34 +5525,34 @@
         <v>1114.489488288111</v>
       </c>
       <c r="N17" t="n">
-        <v>1543.405579420363</v>
+        <v>1495.749126333395</v>
       </c>
       <c r="O17" t="n">
-        <v>1851.175255054322</v>
+        <v>1803.518801967354</v>
       </c>
       <c r="P17" t="n">
-        <v>2254.016841688426</v>
+        <v>2081.692092843753</v>
       </c>
       <c r="Q17" t="n">
-        <v>2350.221313034159</v>
+        <v>2350.221313034162</v>
       </c>
       <c r="R17" t="n">
-        <v>2434.742363063154</v>
+        <v>2434.742363063156</v>
       </c>
       <c r="S17" t="n">
-        <v>2423.71858871496</v>
+        <v>2423.718588714962</v>
       </c>
       <c r="T17" t="n">
-        <v>2375.256580081068</v>
+        <v>2375.256580081069</v>
       </c>
       <c r="U17" t="n">
-        <v>2296.19622260871</v>
+        <v>2296.196222608711</v>
       </c>
       <c r="V17" t="n">
-        <v>2135.040587770722</v>
+        <v>2135.040587770723</v>
       </c>
       <c r="W17" t="n">
-        <v>1948.329296894393</v>
+        <v>1948.329296894394</v>
       </c>
       <c r="X17" t="n">
         <v>1742.122795681957</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>859.5298382224975</v>
+        <v>855.3968415516397</v>
       </c>
       <c r="C18" t="n">
-        <v>697.8261654634522</v>
+        <v>693.6931687925944</v>
       </c>
       <c r="D18" t="n">
-        <v>558.9875284536643</v>
+        <v>554.8545317828065</v>
       </c>
       <c r="E18" t="n">
-        <v>411.9595185105354</v>
+        <v>407.8265218396777</v>
       </c>
       <c r="F18" t="n">
-        <v>277.2657204604097</v>
+        <v>273.1327237895521</v>
       </c>
       <c r="G18" t="n">
-        <v>148.5461794979489</v>
+        <v>144.4131828270912</v>
       </c>
       <c r="H18" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126312</v>
       </c>
       <c r="I18" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126312</v>
       </c>
       <c r="J18" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126312</v>
       </c>
       <c r="K18" t="n">
         <v>279.6032951357313</v>
       </c>
       <c r="L18" t="n">
-        <v>576.9805596464805</v>
+        <v>576.9805596464828</v>
       </c>
       <c r="M18" t="n">
-        <v>1064.238749843725</v>
+        <v>1064.238749843727</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.788117460762</v>
+        <v>1577.788117460764</v>
       </c>
       <c r="O18" t="n">
-        <v>1972.077227250636</v>
+        <v>1972.077227250638</v>
       </c>
       <c r="P18" t="n">
-        <v>2275.849880811938</v>
+        <v>2275.84988081194</v>
       </c>
       <c r="Q18" t="n">
-        <v>2434.742363063154</v>
+        <v>2434.742363063156</v>
       </c>
       <c r="R18" t="n">
-        <v>2434.742363063154</v>
+        <v>2434.742363063156</v>
       </c>
       <c r="S18" t="n">
-        <v>2286.24228250714</v>
+        <v>2282.109285836282</v>
       </c>
       <c r="T18" t="n">
-        <v>2097.593289787598</v>
+        <v>2093.460293116741</v>
       </c>
       <c r="U18" t="n">
-        <v>1879.099086794741</v>
+        <v>1874.966090123883</v>
       </c>
       <c r="V18" t="n">
-        <v>1650.703464243075</v>
+        <v>1646.570467572217</v>
       </c>
       <c r="W18" t="n">
-        <v>1409.387595476385</v>
+        <v>1405.254598805527</v>
       </c>
       <c r="X18" t="n">
-        <v>1211.470607354179</v>
+        <v>1207.337610683322</v>
       </c>
       <c r="Y18" t="n">
-        <v>1018.949281003758</v>
+        <v>1014.816284332901</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.85396497482853</v>
+        <v>48.69484726126312</v>
       </c>
       <c r="C19" t="n">
-        <v>75.85396497482853</v>
+        <v>48.69484726126312</v>
       </c>
       <c r="D19" t="n">
-        <v>75.85396497482853</v>
+        <v>48.69484726126312</v>
       </c>
       <c r="E19" t="n">
-        <v>75.85396497482853</v>
+        <v>48.69484726126312</v>
       </c>
       <c r="F19" t="n">
-        <v>75.85396497482853</v>
+        <v>48.69484726126312</v>
       </c>
       <c r="G19" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126312</v>
       </c>
       <c r="H19" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126312</v>
       </c>
       <c r="I19" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126312</v>
       </c>
       <c r="J19" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126312</v>
       </c>
       <c r="K19" t="n">
-        <v>83.15430385415695</v>
+        <v>83.15430385415699</v>
       </c>
       <c r="L19" t="n">
         <v>184.8558329214187</v>
       </c>
       <c r="M19" t="n">
-        <v>304.0032827697076</v>
+        <v>304.0032827697077</v>
       </c>
       <c r="N19" t="n">
         <v>423.5521300375083</v>
       </c>
       <c r="O19" t="n">
-        <v>523.0562867094576</v>
+        <v>523.0562867094577</v>
       </c>
       <c r="P19" t="n">
-        <v>586.915106647073</v>
+        <v>586.9151066470731</v>
       </c>
       <c r="Q19" t="n">
-        <v>586.915106647073</v>
+        <v>586.9151066470731</v>
       </c>
       <c r="R19" t="n">
-        <v>586.915106647073</v>
+        <v>586.9151066470731</v>
       </c>
       <c r="S19" t="n">
-        <v>549.159878457365</v>
+        <v>522.0007607438008</v>
       </c>
       <c r="T19" t="n">
-        <v>491.8366567227611</v>
+        <v>464.6775390091967</v>
       </c>
       <c r="U19" t="n">
-        <v>380.4704661653821</v>
+        <v>353.3113484518176</v>
       </c>
       <c r="V19" t="n">
-        <v>295.5588009898751</v>
+        <v>268.3996832763103</v>
       </c>
       <c r="W19" t="n">
-        <v>185.2260387733445</v>
+        <v>158.0669210597796</v>
       </c>
       <c r="X19" t="n">
-        <v>129.7972139347906</v>
+        <v>102.6380962212255</v>
       </c>
       <c r="Y19" t="n">
-        <v>83.58569439313801</v>
+        <v>56.42657667957278</v>
       </c>
     </row>
     <row r="20">
@@ -5726,73 +5726,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1306.184679271916</v>
+        <v>1306.184679271917</v>
       </c>
       <c r="C20" t="n">
         <v>1100.074559870794</v>
       </c>
       <c r="D20" t="n">
-        <v>903.0742343640875</v>
+        <v>903.0742343640877</v>
       </c>
       <c r="E20" t="n">
-        <v>684.1121537362645</v>
+        <v>684.1121537362648</v>
       </c>
       <c r="F20" t="n">
-        <v>445.7846023125051</v>
+        <v>445.7846023125053</v>
       </c>
       <c r="G20" t="n">
-        <v>205.5209993774862</v>
+        <v>205.5209993774864</v>
       </c>
       <c r="H20" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126313</v>
       </c>
       <c r="I20" t="n">
-        <v>52.27414974725973</v>
+        <v>52.27414974725962</v>
       </c>
       <c r="J20" t="n">
-        <v>125.6655683569961</v>
+        <v>257.8430714729618</v>
       </c>
       <c r="K20" t="n">
-        <v>367.8934979674142</v>
+        <v>672.3957499280552</v>
       </c>
       <c r="L20" t="n">
-        <v>890.6934196516737</v>
+        <v>1022.870922767639</v>
       </c>
       <c r="M20" t="n">
-        <v>1334.470690219755</v>
+        <v>1418.991740248752</v>
       </c>
       <c r="N20" t="n">
-        <v>1715.730328265039</v>
+        <v>1800.251378294036</v>
       </c>
       <c r="O20" t="n">
-        <v>2023.500003898997</v>
+        <v>2108.021053927995</v>
       </c>
       <c r="P20" t="n">
-        <v>2254.016841688426</v>
+        <v>2338.537891717423</v>
       </c>
       <c r="Q20" t="n">
-        <v>2350.221313034159</v>
+        <v>2434.742363063157</v>
       </c>
       <c r="R20" t="n">
-        <v>2434.742363063154</v>
+        <v>2434.742363063157</v>
       </c>
       <c r="S20" t="n">
-        <v>2423.718588714959</v>
+        <v>2423.718588714961</v>
       </c>
       <c r="T20" t="n">
-        <v>2375.256580081067</v>
+        <v>2375.256580081069</v>
       </c>
       <c r="U20" t="n">
-        <v>2296.196222608709</v>
+        <v>2296.196222608711</v>
       </c>
       <c r="V20" t="n">
-        <v>2135.040587770721</v>
+        <v>2135.040587770723</v>
       </c>
       <c r="W20" t="n">
-        <v>1948.329296894393</v>
+        <v>1948.329296894394</v>
       </c>
       <c r="X20" t="n">
-        <v>1742.122795681956</v>
+        <v>1742.122795681957</v>
       </c>
       <c r="Y20" t="n">
         <v>1524.404579523865</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>927.6036662434097</v>
+        <v>796.1688174088108</v>
       </c>
       <c r="C21" t="n">
-        <v>765.8999934843645</v>
+        <v>634.4651446497655</v>
       </c>
       <c r="D21" t="n">
-        <v>627.0613564745765</v>
+        <v>495.6265076399776</v>
       </c>
       <c r="E21" t="n">
-        <v>480.0333465314477</v>
+        <v>348.5984976968488</v>
       </c>
       <c r="F21" t="n">
-        <v>345.3395484813221</v>
+        <v>213.9046996467232</v>
       </c>
       <c r="G21" t="n">
-        <v>216.6200075188612</v>
+        <v>85.18515868426229</v>
       </c>
       <c r="H21" t="n">
-        <v>116.7686752821754</v>
+        <v>85.18515868426229</v>
       </c>
       <c r="I21" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126313</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7785802073006</v>
+        <v>48.69484726126313</v>
       </c>
       <c r="K21" t="n">
-        <v>340.6870280817689</v>
+        <v>209.2521792471688</v>
       </c>
       <c r="L21" t="n">
-        <v>708.4154084810832</v>
+        <v>576.9805596464832</v>
       </c>
       <c r="M21" t="n">
-        <v>1195.673598678327</v>
+        <v>1064.238749843727</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.788117460762</v>
+        <v>1577.788117460764</v>
       </c>
       <c r="O21" t="n">
-        <v>1972.077227250636</v>
+        <v>1972.077227250639</v>
       </c>
       <c r="P21" t="n">
-        <v>2275.849880811938</v>
+        <v>2275.849880811941</v>
       </c>
       <c r="Q21" t="n">
-        <v>2434.742363063154</v>
+        <v>2434.742363063157</v>
       </c>
       <c r="R21" t="n">
-        <v>2375.514338920324</v>
+        <v>2375.514338920327</v>
       </c>
       <c r="S21" t="n">
-        <v>2222.88126169345</v>
+        <v>2222.881261693453</v>
       </c>
       <c r="T21" t="n">
-        <v>2034.232268973909</v>
+        <v>2034.232268973911</v>
       </c>
       <c r="U21" t="n">
-        <v>1947.172914815653</v>
+        <v>1815.738065981054</v>
       </c>
       <c r="V21" t="n">
-        <v>1718.777292263987</v>
+        <v>1587.342443429388</v>
       </c>
       <c r="W21" t="n">
-        <v>1477.461423497297</v>
+        <v>1346.026574662698</v>
       </c>
       <c r="X21" t="n">
-        <v>1279.544435375092</v>
+        <v>1148.109586540493</v>
       </c>
       <c r="Y21" t="n">
-        <v>1087.023109024671</v>
+        <v>955.5882601900718</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.69484726126308</v>
+        <v>75.85396497482726</v>
       </c>
       <c r="C22" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126313</v>
       </c>
       <c r="D22" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126313</v>
       </c>
       <c r="E22" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126313</v>
       </c>
       <c r="F22" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126313</v>
       </c>
       <c r="G22" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126313</v>
       </c>
       <c r="H22" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126313</v>
       </c>
       <c r="I22" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126313</v>
       </c>
       <c r="J22" t="n">
-        <v>48.69484726126308</v>
+        <v>48.69484726126313</v>
       </c>
       <c r="K22" t="n">
-        <v>83.15430385415695</v>
+        <v>83.15430385415701</v>
       </c>
       <c r="L22" t="n">
         <v>184.8558329214187</v>
       </c>
       <c r="M22" t="n">
-        <v>304.0032827697076</v>
+        <v>304.0032827697077</v>
       </c>
       <c r="N22" t="n">
         <v>423.5521300375083</v>
       </c>
       <c r="O22" t="n">
-        <v>523.0562867094576</v>
+        <v>523.0562867094577</v>
       </c>
       <c r="P22" t="n">
-        <v>586.915106647073</v>
+        <v>586.9151066470731</v>
       </c>
       <c r="Q22" t="n">
-        <v>586.915106647073</v>
+        <v>586.9151066470731</v>
       </c>
       <c r="R22" t="n">
-        <v>586.915106647073</v>
+        <v>586.9151066470731</v>
       </c>
       <c r="S22" t="n">
-        <v>522.0007607437996</v>
+        <v>549.159878457365</v>
       </c>
       <c r="T22" t="n">
-        <v>464.6775390091956</v>
+        <v>491.8366567227609</v>
       </c>
       <c r="U22" t="n">
-        <v>353.3113484518167</v>
+        <v>380.4704661653818</v>
       </c>
       <c r="V22" t="n">
-        <v>268.3996832763096</v>
+        <v>295.5588009898745</v>
       </c>
       <c r="W22" t="n">
-        <v>158.066921059779</v>
+        <v>185.2260387733438</v>
       </c>
       <c r="X22" t="n">
-        <v>102.6380962212251</v>
+        <v>129.7972139347897</v>
       </c>
       <c r="Y22" t="n">
-        <v>56.42657667957257</v>
+        <v>83.58569439313693</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1306.184679271915</v>
+        <v>1306.184679271916</v>
       </c>
       <c r="C23" t="n">
         <v>1100.074559870793</v>
       </c>
       <c r="D23" t="n">
-        <v>903.0742343640866</v>
+        <v>903.0742343640868</v>
       </c>
       <c r="E23" t="n">
-        <v>684.1121537362637</v>
+        <v>684.1121537362638</v>
       </c>
       <c r="F23" t="n">
         <v>445.7846023125044</v>
       </c>
       <c r="G23" t="n">
-        <v>205.5209993774862</v>
+        <v>205.5209993774864</v>
       </c>
       <c r="H23" t="n">
-        <v>48.69484726126305</v>
+        <v>48.69484726126309</v>
       </c>
       <c r="I23" t="n">
-        <v>52.27414974725971</v>
+        <v>52.27414974725958</v>
       </c>
       <c r="J23" t="n">
-        <v>125.665568356996</v>
+        <v>125.6655683569959</v>
       </c>
       <c r="K23" t="n">
-        <v>367.8934979674142</v>
+        <v>367.893497967414</v>
       </c>
       <c r="L23" t="n">
-        <v>718.3686708069981</v>
+        <v>718.368670806998</v>
       </c>
       <c r="M23" t="n">
         <v>1114.489488288111</v>
       </c>
       <c r="N23" t="n">
-        <v>1668.07387517807</v>
+        <v>1495.749126333395</v>
       </c>
       <c r="O23" t="n">
-        <v>1975.843550812029</v>
+        <v>1803.518801967353</v>
       </c>
       <c r="P23" t="n">
-        <v>2338.537891717419</v>
+        <v>2206.360388601457</v>
       </c>
       <c r="Q23" t="n">
-        <v>2434.742363063152</v>
+        <v>2434.742363063155</v>
       </c>
       <c r="R23" t="n">
-        <v>2434.742363063152</v>
+        <v>2434.742363063155</v>
       </c>
       <c r="S23" t="n">
-        <v>2423.718588714959</v>
+        <v>2423.718588714961</v>
       </c>
       <c r="T23" t="n">
-        <v>2375.256580081066</v>
+        <v>2375.256580081068</v>
       </c>
       <c r="U23" t="n">
-        <v>2296.196222608708</v>
+        <v>2296.19622260871</v>
       </c>
       <c r="V23" t="n">
-        <v>2135.04058777072</v>
+        <v>2135.040587770722</v>
       </c>
       <c r="W23" t="n">
-        <v>1948.329296894392</v>
+        <v>1948.329296894393</v>
       </c>
       <c r="X23" t="n">
-        <v>1742.122795681955</v>
+        <v>1742.122795681956</v>
       </c>
       <c r="Y23" t="n">
-        <v>1524.404579523864</v>
+        <v>1524.404579523865</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>927.6036662434097</v>
+        <v>796.168817408809</v>
       </c>
       <c r="C24" t="n">
-        <v>765.8999934843645</v>
+        <v>634.4651446497637</v>
       </c>
       <c r="D24" t="n">
-        <v>627.0613564745765</v>
+        <v>495.6265076399758</v>
       </c>
       <c r="E24" t="n">
-        <v>480.0333465314477</v>
+        <v>348.598497696847</v>
       </c>
       <c r="F24" t="n">
-        <v>345.339548481322</v>
+        <v>213.9046996467214</v>
       </c>
       <c r="G24" t="n">
-        <v>216.6200075188612</v>
+        <v>213.9046996467214</v>
       </c>
       <c r="H24" t="n">
-        <v>116.7686752821754</v>
+        <v>114.0533674100355</v>
       </c>
       <c r="I24" t="n">
-        <v>48.69484726126305</v>
+        <v>48.69484726126309</v>
       </c>
       <c r="J24" t="n">
-        <v>109.7785802073006</v>
+        <v>109.7785802073007</v>
       </c>
       <c r="K24" t="n">
-        <v>209.2521792471647</v>
+        <v>340.6870280817689</v>
       </c>
       <c r="L24" t="n">
-        <v>576.9805596464792</v>
+        <v>708.4154084810833</v>
       </c>
       <c r="M24" t="n">
-        <v>1064.238749843723</v>
+        <v>1195.673598678327</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.78811746076</v>
+        <v>1709.222966295364</v>
       </c>
       <c r="O24" t="n">
-        <v>1972.077227250635</v>
+        <v>2103.512076085239</v>
       </c>
       <c r="P24" t="n">
-        <v>2275.849880811937</v>
+        <v>2407.284729646541</v>
       </c>
       <c r="Q24" t="n">
-        <v>2434.742363063152</v>
+        <v>2434.742363063155</v>
       </c>
       <c r="R24" t="n">
-        <v>2375.514338920323</v>
+        <v>2375.514338920325</v>
       </c>
       <c r="S24" t="n">
-        <v>2222.881261693449</v>
+        <v>2222.881261693451</v>
       </c>
       <c r="T24" t="n">
-        <v>2165.66711780851</v>
+        <v>2034.23226897391</v>
       </c>
       <c r="U24" t="n">
-        <v>1947.172914815653</v>
+        <v>1815.738065981052</v>
       </c>
       <c r="V24" t="n">
-        <v>1718.777292263987</v>
+        <v>1587.342443429386</v>
       </c>
       <c r="W24" t="n">
-        <v>1477.461423497297</v>
+        <v>1346.026574662696</v>
       </c>
       <c r="X24" t="n">
-        <v>1279.544435375092</v>
+        <v>1148.109586540491</v>
       </c>
       <c r="Y24" t="n">
-        <v>1087.023109024671</v>
+        <v>955.5882601900699</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>75.85396497482853</v>
+        <v>75.85396497482715</v>
       </c>
       <c r="C25" t="n">
-        <v>48.69484726126305</v>
+        <v>75.85396497482715</v>
       </c>
       <c r="D25" t="n">
-        <v>48.69484726126305</v>
+        <v>75.85396497482715</v>
       </c>
       <c r="E25" t="n">
-        <v>48.69484726126305</v>
+        <v>75.85396497482715</v>
       </c>
       <c r="F25" t="n">
-        <v>48.69484726126305</v>
+        <v>75.85396497482715</v>
       </c>
       <c r="G25" t="n">
-        <v>48.69484726126305</v>
+        <v>48.69484726126309</v>
       </c>
       <c r="H25" t="n">
-        <v>48.69484726126305</v>
+        <v>48.69484726126309</v>
       </c>
       <c r="I25" t="n">
-        <v>48.69484726126305</v>
+        <v>48.69484726126309</v>
       </c>
       <c r="J25" t="n">
-        <v>48.69484726126305</v>
+        <v>48.69484726126309</v>
       </c>
       <c r="K25" t="n">
-        <v>83.15430385415692</v>
+        <v>83.15430385415696</v>
       </c>
       <c r="L25" t="n">
-        <v>184.8558329214186</v>
+        <v>184.8558329214187</v>
       </c>
       <c r="M25" t="n">
-        <v>304.0032827697075</v>
+        <v>304.0032827697076</v>
       </c>
       <c r="N25" t="n">
-        <v>423.5521300375082</v>
+        <v>423.5521300375083</v>
       </c>
       <c r="O25" t="n">
-        <v>523.0562867094575</v>
+        <v>523.0562867094576</v>
       </c>
       <c r="P25" t="n">
-        <v>586.9151066470729</v>
+        <v>586.915106647073</v>
       </c>
       <c r="Q25" t="n">
-        <v>586.9151066470729</v>
+        <v>586.915106647073</v>
       </c>
       <c r="R25" t="n">
-        <v>586.9151066470729</v>
+        <v>586.915106647073</v>
       </c>
       <c r="S25" t="n">
-        <v>549.159878457365</v>
+        <v>549.1598784573649</v>
       </c>
       <c r="T25" t="n">
-        <v>491.8366567227611</v>
+        <v>491.8366567227608</v>
       </c>
       <c r="U25" t="n">
-        <v>380.4704661653821</v>
+        <v>380.4704661653817</v>
       </c>
       <c r="V25" t="n">
-        <v>295.5588009898751</v>
+        <v>295.5588009898744</v>
       </c>
       <c r="W25" t="n">
-        <v>185.2260387733445</v>
+        <v>185.2260387733436</v>
       </c>
       <c r="X25" t="n">
-        <v>129.7972139347906</v>
+        <v>129.7972139347896</v>
       </c>
       <c r="Y25" t="n">
-        <v>83.58569439313801</v>
+        <v>83.58569439313682</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1746.130061466889</v>
+        <v>1437.751429451681</v>
       </c>
       <c r="C26" t="n">
-        <v>1478.432508543952</v>
+        <v>1170.053876528745</v>
       </c>
       <c r="D26" t="n">
-        <v>1219.844749515432</v>
+        <v>1001.431163877395</v>
       </c>
       <c r="E26" t="n">
-        <v>939.2952353657952</v>
+        <v>720.8816497277583</v>
       </c>
       <c r="F26" t="n">
-        <v>639.3802504202222</v>
+        <v>420.9666647821849</v>
       </c>
       <c r="G26" t="n">
-        <v>337.5292139633897</v>
+        <v>119.1156283253524</v>
       </c>
       <c r="H26" t="n">
         <v>119.1156283253524</v>
@@ -6224,10 +6224,10 @@
         <v>61.18017162834867</v>
       </c>
       <c r="J26" t="n">
-        <v>246.5344954880306</v>
+        <v>246.5344954880305</v>
       </c>
       <c r="K26" t="n">
-        <v>600.7253303483944</v>
+        <v>600.7253303483942</v>
       </c>
       <c r="L26" t="n">
         <v>1063.163408437924</v>
@@ -6242,34 +6242,34 @@
         <v>2484.202255348116</v>
       </c>
       <c r="P26" t="n">
-        <v>2826.681998387489</v>
+        <v>2826.68199838749</v>
       </c>
       <c r="Q26" t="n">
-        <v>3034.849374983168</v>
+        <v>3034.849374983169</v>
       </c>
       <c r="R26" t="n">
-        <v>3059.008581417433</v>
+        <v>3059.008581417434</v>
       </c>
       <c r="S26" t="n">
-        <v>2986.397373547425</v>
+        <v>2986.397373547426</v>
       </c>
       <c r="T26" t="n">
-        <v>2961.983495047122</v>
+        <v>2876.347931391719</v>
       </c>
       <c r="U26" t="n">
-        <v>2821.335704052951</v>
+        <v>2735.700140397546</v>
       </c>
       <c r="V26" t="n">
-        <v>2821.335704052951</v>
+        <v>2512.957072037743</v>
       </c>
       <c r="W26" t="n">
-        <v>2573.036979654808</v>
+        <v>2264.6583476396</v>
       </c>
       <c r="X26" t="n">
-        <v>2305.243044920558</v>
+        <v>1996.86441290535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2025.937395240652</v>
+        <v>1717.558763225444</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>940.0889906104954</v>
+        <v>940.0889906104957</v>
       </c>
       <c r="C27" t="n">
-        <v>778.3853178514502</v>
+        <v>778.3853178514505</v>
       </c>
       <c r="D27" t="n">
-        <v>639.5466808416622</v>
+        <v>639.5466808416627</v>
       </c>
       <c r="E27" t="n">
-        <v>492.5186708985334</v>
+        <v>492.5186708985339</v>
       </c>
       <c r="F27" t="n">
-        <v>357.8248728484077</v>
+        <v>357.8248728484082</v>
       </c>
       <c r="G27" t="n">
         <v>229.1053318859468</v>
@@ -6303,13 +6303,13 @@
         <v>61.18017162834867</v>
       </c>
       <c r="J27" t="n">
-        <v>122.2639045743862</v>
+        <v>122.2639045743861</v>
       </c>
       <c r="K27" t="n">
-        <v>353.1723524488545</v>
+        <v>353.1723524488543</v>
       </c>
       <c r="L27" t="n">
-        <v>720.9007328481689</v>
+        <v>720.9007328481687</v>
       </c>
       <c r="M27" t="n">
         <v>1208.158923045413</v>
@@ -6318,10 +6318,10 @@
         <v>1721.70829066245</v>
       </c>
       <c r="O27" t="n">
-        <v>2115.997400452325</v>
+        <v>2115.997400452324</v>
       </c>
       <c r="P27" t="n">
-        <v>2419.770054013627</v>
+        <v>2419.770054013626</v>
       </c>
       <c r="Q27" t="n">
         <v>2578.662536264842</v>
@@ -6333,7 +6333,7 @@
         <v>2366.801434895138</v>
       </c>
       <c r="T27" t="n">
-        <v>2178.152442175596</v>
+        <v>2178.152442175597</v>
       </c>
       <c r="U27" t="n">
         <v>1959.658239182739</v>
@@ -6345,10 +6345,10 @@
         <v>1489.946747864383</v>
       </c>
       <c r="X27" t="n">
-        <v>1292.029759742177</v>
+        <v>1292.029759742178</v>
       </c>
       <c r="Y27" t="n">
-        <v>1099.508433391756</v>
+        <v>1099.508433391757</v>
       </c>
     </row>
     <row r="28">
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>360.8995372532528</v>
+        <v>360.8995372532527</v>
       </c>
       <c r="C28" t="n">
-        <v>305.5197734591893</v>
+        <v>305.5197734591892</v>
       </c>
       <c r="D28" t="n">
-        <v>266.6840860312083</v>
+        <v>266.6840860312082</v>
       </c>
       <c r="E28" t="n">
-        <v>228.9112775367833</v>
+        <v>228.9112775367832</v>
       </c>
       <c r="F28" t="n">
-        <v>190.6668283068167</v>
+        <v>190.6668283068166</v>
       </c>
       <c r="G28" t="n">
-        <v>135.9907963555211</v>
+        <v>135.9907963555208</v>
       </c>
       <c r="H28" t="n">
-        <v>90.92113593353334</v>
+        <v>90.92113593353329</v>
       </c>
       <c r="I28" t="n">
         <v>61.18017162834867</v>
       </c>
       <c r="J28" t="n">
-        <v>114.8014331957903</v>
+        <v>114.8014331957899</v>
       </c>
       <c r="K28" t="n">
-        <v>261.2237950386296</v>
+        <v>261.2237950386293</v>
       </c>
       <c r="L28" t="n">
-        <v>474.8882293558369</v>
+        <v>474.8882293558366</v>
       </c>
       <c r="M28" t="n">
         <v>705.9985844540713</v>
       </c>
       <c r="N28" t="n">
-        <v>937.5103369718174</v>
+        <v>937.5103369718175</v>
       </c>
       <c r="O28" t="n">
         <v>1148.977398893712</v>
@@ -6403,7 +6403,7 @@
         <v>1324.799124081273</v>
       </c>
       <c r="Q28" t="n">
-        <v>1399.608003719424</v>
+        <v>1399.608003719423</v>
       </c>
       <c r="R28" t="n">
         <v>1364.66014710001</v>
@@ -6415,19 +6415,19 @@
         <v>1146.40683013207</v>
       </c>
       <c r="U28" t="n">
-        <v>973.453206052877</v>
+        <v>973.4532060528766</v>
       </c>
       <c r="V28" t="n">
-        <v>826.9541073555558</v>
+        <v>826.9541073555554</v>
       </c>
       <c r="W28" t="n">
-        <v>655.0339116172112</v>
+        <v>655.0339116172108</v>
       </c>
       <c r="X28" t="n">
-        <v>538.0176532568431</v>
+        <v>538.0176532568429</v>
       </c>
       <c r="Y28" t="n">
-        <v>430.2187001933764</v>
+        <v>430.2187001933763</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1527.716475828852</v>
+        <v>1688.194604769885</v>
       </c>
       <c r="C29" t="n">
-        <v>1260.018922905916</v>
+        <v>1420.497051846949</v>
       </c>
       <c r="D29" t="n">
-        <v>1001.431163877395</v>
+        <v>1161.909292818429</v>
       </c>
       <c r="E29" t="n">
-        <v>720.8816497277585</v>
+        <v>881.3597786687919</v>
       </c>
       <c r="F29" t="n">
-        <v>420.966664782185</v>
+        <v>581.4447937232185</v>
       </c>
       <c r="G29" t="n">
-        <v>119.1156283253524</v>
+        <v>279.5937572663859</v>
       </c>
       <c r="H29" t="n">
-        <v>119.1156283253524</v>
+        <v>61.18017162834867</v>
       </c>
       <c r="I29" t="n">
         <v>61.18017162834867</v>
@@ -6464,7 +6464,7 @@
         <v>246.5344954880305</v>
       </c>
       <c r="K29" t="n">
-        <v>600.7253303483942</v>
+        <v>600.7253303483943</v>
       </c>
       <c r="L29" t="n">
         <v>1063.163408437924</v>
@@ -6479,7 +6479,7 @@
         <v>2484.202255348116</v>
       </c>
       <c r="P29" t="n">
-        <v>2826.68199838749</v>
+        <v>2826.681998387489</v>
       </c>
       <c r="Q29" t="n">
         <v>3034.849374983169</v>
@@ -6491,22 +6491,22 @@
         <v>3059.008581417434</v>
       </c>
       <c r="T29" t="n">
-        <v>2966.312977768888</v>
+        <v>3059.008581417434</v>
       </c>
       <c r="U29" t="n">
-        <v>2825.665186774717</v>
+        <v>2918.360790423262</v>
       </c>
       <c r="V29" t="n">
-        <v>2602.922118414914</v>
+        <v>2695.617722063459</v>
       </c>
       <c r="W29" t="n">
-        <v>2354.623394016771</v>
+        <v>2447.318997665317</v>
       </c>
       <c r="X29" t="n">
-        <v>2086.829459282521</v>
+        <v>2179.525062931066</v>
       </c>
       <c r="Y29" t="n">
-        <v>1807.523809602615</v>
+        <v>1900.21941325116</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>940.0889906104957</v>
+        <v>940.0889906104965</v>
       </c>
       <c r="C30" t="n">
-        <v>778.3853178514505</v>
+        <v>778.3853178514512</v>
       </c>
       <c r="D30" t="n">
-        <v>639.5466808416627</v>
+        <v>639.5466808416633</v>
       </c>
       <c r="E30" t="n">
-        <v>492.5186708985339</v>
+        <v>492.5186708985345</v>
       </c>
       <c r="F30" t="n">
-        <v>357.8248728484082</v>
+        <v>357.8248728484089</v>
       </c>
       <c r="G30" t="n">
-        <v>229.1053318859468</v>
+        <v>229.105331885948</v>
       </c>
       <c r="H30" t="n">
-        <v>129.253999649261</v>
+        <v>129.2539996492622</v>
       </c>
       <c r="I30" t="n">
         <v>61.18017162834867</v>
       </c>
       <c r="J30" t="n">
-        <v>122.2639045743861</v>
+        <v>122.2639045743862</v>
       </c>
       <c r="K30" t="n">
-        <v>353.1723524488543</v>
+        <v>353.1723524488545</v>
       </c>
       <c r="L30" t="n">
-        <v>720.9007328481687</v>
+        <v>720.9007328481689</v>
       </c>
       <c r="M30" t="n">
         <v>1208.158923045413</v>
@@ -6555,31 +6555,31 @@
         <v>1721.70829066245</v>
       </c>
       <c r="O30" t="n">
-        <v>2115.997400452324</v>
+        <v>2115.997400452325</v>
       </c>
       <c r="P30" t="n">
-        <v>2419.770054013626</v>
+        <v>2419.770054013627</v>
       </c>
       <c r="Q30" t="n">
         <v>2578.662536264842</v>
       </c>
       <c r="R30" t="n">
-        <v>2519.434512122012</v>
+        <v>2519.434512122013</v>
       </c>
       <c r="S30" t="n">
-        <v>2366.801434895138</v>
+        <v>2366.801434895139</v>
       </c>
       <c r="T30" t="n">
         <v>2178.152442175597</v>
       </c>
       <c r="U30" t="n">
-        <v>1959.658239182739</v>
+        <v>1959.65823918274</v>
       </c>
       <c r="V30" t="n">
-        <v>1731.262616631073</v>
+        <v>1731.262616631074</v>
       </c>
       <c r="W30" t="n">
-        <v>1489.946747864383</v>
+        <v>1489.946747864384</v>
       </c>
       <c r="X30" t="n">
         <v>1292.029759742178</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>360.8995372532523</v>
+        <v>360.8995372532526</v>
       </c>
       <c r="C31" t="n">
-        <v>305.5197734591889</v>
+        <v>305.5197734591891</v>
       </c>
       <c r="D31" t="n">
-        <v>266.6840860312078</v>
+        <v>266.684086031208</v>
       </c>
       <c r="E31" t="n">
-        <v>228.9112775367829</v>
+        <v>228.9112775367831</v>
       </c>
       <c r="F31" t="n">
-        <v>190.6668283068162</v>
+        <v>190.6668283068165</v>
       </c>
       <c r="G31" t="n">
-        <v>135.9907963555206</v>
+        <v>135.9907963555208</v>
       </c>
       <c r="H31" t="n">
-        <v>90.92113593353288</v>
+        <v>90.92113593353329</v>
       </c>
       <c r="I31" t="n">
         <v>61.18017162834867</v>
@@ -6622,16 +6622,16 @@
         <v>114.8014331957899</v>
       </c>
       <c r="K31" t="n">
-        <v>261.2237950386293</v>
+        <v>261.2237950386294</v>
       </c>
       <c r="L31" t="n">
-        <v>474.8882293558365</v>
+        <v>474.8882293558366</v>
       </c>
       <c r="M31" t="n">
         <v>705.9985844540711</v>
       </c>
       <c r="N31" t="n">
-        <v>937.5103369718172</v>
+        <v>937.5103369718173</v>
       </c>
       <c r="O31" t="n">
         <v>1148.977398893712</v>
@@ -6652,19 +6652,19 @@
         <v>1146.40683013207</v>
       </c>
       <c r="U31" t="n">
-        <v>973.4532060528766</v>
+        <v>973.4532060528767</v>
       </c>
       <c r="V31" t="n">
-        <v>826.9541073555554</v>
+        <v>826.9541073555555</v>
       </c>
       <c r="W31" t="n">
-        <v>655.0339116172107</v>
+        <v>655.0339116172108</v>
       </c>
       <c r="X31" t="n">
         <v>538.0176532568428</v>
       </c>
       <c r="Y31" t="n">
-        <v>430.218700193376</v>
+        <v>430.2187001933762</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>1527.46034062879</v>
       </c>
       <c r="C32" t="n">
-        <v>1290.553835060831</v>
+        <v>1290.553835060832</v>
       </c>
       <c r="D32" t="n">
         <v>1062.757123387289</v>
       </c>
       <c r="E32" t="n">
-        <v>812.9986565926299</v>
+        <v>812.9986565926301</v>
       </c>
       <c r="F32" t="n">
         <v>543.8747190020345</v>
       </c>
       <c r="G32" t="n">
-        <v>272.8147299001798</v>
+        <v>272.8147299001794</v>
       </c>
       <c r="H32" t="n">
-        <v>85.19219161712013</v>
+        <v>85.19219161712026</v>
       </c>
       <c r="I32" t="n">
-        <v>58.04778227509433</v>
+        <v>58.04778227509438</v>
       </c>
       <c r="J32" t="n">
-        <v>273.5804116473901</v>
+        <v>132.7710052495248</v>
       </c>
       <c r="K32" t="n">
-        <v>517.1401456224987</v>
+        <v>517.1401456225022</v>
       </c>
       <c r="L32" t="n">
-        <v>867.6153184620828</v>
+        <v>1009.756529224646</v>
       </c>
       <c r="M32" t="n">
-        <v>1263.736135943196</v>
+        <v>1548.018557468318</v>
       </c>
       <c r="N32" t="n">
-        <v>1787.136984751039</v>
+        <v>1929.278195513602</v>
       </c>
       <c r="O32" t="n">
-        <v>2237.047871147557</v>
+        <v>2237.04787114756</v>
       </c>
       <c r="P32" t="n">
-        <v>2609.705919699545</v>
+        <v>2609.705919699548</v>
       </c>
       <c r="Q32" t="n">
-        <v>2848.051601807838</v>
+        <v>2848.051601807841</v>
       </c>
       <c r="R32" t="n">
-        <v>2902.389113754717</v>
+        <v>2902.389113754719</v>
       </c>
       <c r="S32" t="n">
-        <v>2860.568953239687</v>
+        <v>2860.568953239689</v>
       </c>
       <c r="T32" t="n">
-        <v>2781.310558438958</v>
+        <v>2781.31055843896</v>
       </c>
       <c r="U32" t="n">
-        <v>2671.453814799765</v>
+        <v>2671.453814799766</v>
       </c>
       <c r="V32" t="n">
-        <v>2479.50179379494</v>
+        <v>2479.501793794941</v>
       </c>
       <c r="W32" t="n">
-        <v>2261.994116751775</v>
+        <v>2261.994116751776</v>
       </c>
       <c r="X32" t="n">
-        <v>2024.991229372503</v>
+        <v>2024.991229372504</v>
       </c>
       <c r="Y32" t="n">
         <v>1776.476627047575</v>
@@ -6762,10 +6762,10 @@
         <v>636.4142914884078</v>
       </c>
       <c r="E33" t="n">
-        <v>489.386281545279</v>
+        <v>489.3862815452791</v>
       </c>
       <c r="F33" t="n">
-        <v>354.6924834951533</v>
+        <v>354.6924834951534</v>
       </c>
       <c r="G33" t="n">
         <v>225.9729425326925</v>
@@ -6774,31 +6774,31 @@
         <v>126.1216102960067</v>
       </c>
       <c r="I33" t="n">
-        <v>58.04778227509433</v>
+        <v>58.04778227509438</v>
       </c>
       <c r="J33" t="n">
         <v>119.1315152211319</v>
       </c>
       <c r="K33" t="n">
-        <v>350.0399630956001</v>
+        <v>350.0399630956002</v>
       </c>
       <c r="L33" t="n">
-        <v>717.7683434949138</v>
+        <v>717.7683434949146</v>
       </c>
       <c r="M33" t="n">
-        <v>1205.026533692158</v>
+        <v>1205.026533692159</v>
       </c>
       <c r="N33" t="n">
-        <v>1718.575901309195</v>
+        <v>1718.575901309196</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.865011099069</v>
+        <v>2112.86501109907</v>
       </c>
       <c r="P33" t="n">
-        <v>2416.637664660371</v>
+        <v>2416.637664660372</v>
       </c>
       <c r="Q33" t="n">
-        <v>2575.530146911587</v>
+        <v>2575.530146911588</v>
       </c>
       <c r="R33" t="n">
         <v>2516.302122768757</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>143.2798994649462</v>
+        <v>143.2798994649468</v>
       </c>
       <c r="C34" t="n">
-        <v>118.6911830258607</v>
+        <v>118.6911830258611</v>
       </c>
       <c r="D34" t="n">
-        <v>110.6465429528575</v>
+        <v>110.6465429528579</v>
       </c>
       <c r="E34" t="n">
-        <v>103.6647818134105</v>
+        <v>103.6647818134108</v>
       </c>
       <c r="F34" t="n">
-        <v>96.21137993842177</v>
+        <v>96.211379938422</v>
       </c>
       <c r="G34" t="n">
-        <v>72.32639534210414</v>
+        <v>72.32639534210426</v>
       </c>
       <c r="H34" t="n">
-        <v>58.04778227509433</v>
+        <v>58.04778227509438</v>
       </c>
       <c r="I34" t="n">
-        <v>58.04778227509433</v>
+        <v>58.04778227509438</v>
       </c>
       <c r="J34" t="n">
-        <v>141.8473493551495</v>
+        <v>141.8473493551494</v>
       </c>
       <c r="K34" t="n">
-        <v>176.3068059480434</v>
+        <v>176.3068059480433</v>
       </c>
       <c r="L34" t="n">
-        <v>278.0083350153051</v>
+        <v>278.008335015305</v>
       </c>
       <c r="M34" t="n">
         <v>397.155784863594</v>
       </c>
       <c r="N34" t="n">
-        <v>636.5187779759866</v>
+        <v>516.7046321313946</v>
       </c>
       <c r="O34" t="n">
-        <v>736.0229346479359</v>
+        <v>616.208788803344</v>
       </c>
       <c r="P34" t="n">
-        <v>799.8817545855513</v>
+        <v>799.881754585553</v>
       </c>
       <c r="Q34" t="n">
-        <v>904.8689397363155</v>
+        <v>904.8689397363171</v>
       </c>
       <c r="R34" t="n">
-        <v>900.71213047188</v>
+        <v>900.7121304718814</v>
       </c>
       <c r="S34" t="n">
-        <v>832.1605161153359</v>
+        <v>832.1605161153373</v>
       </c>
       <c r="T34" t="n">
-        <v>744.0409082138958</v>
+        <v>744.0409082138971</v>
       </c>
       <c r="U34" t="n">
-        <v>601.8783314896807</v>
+        <v>601.8783314896818</v>
       </c>
       <c r="V34" t="n">
-        <v>486.1702801473375</v>
+        <v>486.1702801473385</v>
       </c>
       <c r="W34" t="n">
-        <v>345.0411317639707</v>
+        <v>345.0411317639716</v>
       </c>
       <c r="X34" t="n">
-        <v>258.8159207585807</v>
+        <v>258.8159207585815</v>
       </c>
       <c r="Y34" t="n">
-        <v>181.8080150500919</v>
+        <v>181.8080150500926</v>
       </c>
     </row>
     <row r="35">
@@ -6920,40 +6920,40 @@
         <v>947.1335432795149</v>
       </c>
       <c r="E35" t="n">
-        <v>719.1656742743978</v>
+        <v>719.1656742743977</v>
       </c>
       <c r="F35" t="n">
-        <v>471.8323344733445</v>
+        <v>471.8323344733442</v>
       </c>
       <c r="G35" t="n">
-        <v>222.5629431610318</v>
+        <v>222.5629431610317</v>
       </c>
       <c r="H35" t="n">
-        <v>56.73100266751435</v>
+        <v>56.73100266751429</v>
       </c>
       <c r="I35" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J35" t="n">
-        <v>124.7686097247668</v>
+        <v>161.5941848534165</v>
       </c>
       <c r="K35" t="n">
-        <v>366.9965393351849</v>
+        <v>403.8221144638346</v>
       </c>
       <c r="L35" t="n">
-        <v>717.471712174769</v>
+        <v>917.7954629595081</v>
       </c>
       <c r="M35" t="n">
-        <v>1113.592529655882</v>
+        <v>1313.916280440621</v>
       </c>
       <c r="N35" t="n">
-        <v>1494.852167701166</v>
+        <v>1695.175918485905</v>
       </c>
       <c r="O35" t="n">
-        <v>1839.447418463775</v>
+        <v>2002.945594119863</v>
       </c>
       <c r="P35" t="n">
-        <v>2233.462431909293</v>
+        <v>2396.960607565381</v>
       </c>
       <c r="Q35" t="n">
         <v>2493.165078911115</v>
@@ -6962,13 +6962,13 @@
         <v>2568.859555751524</v>
       </c>
       <c r="S35" t="n">
-        <v>2548.829993026036</v>
+        <v>2548.829993026035</v>
       </c>
       <c r="T35" t="n">
-        <v>2491.362196014849</v>
+        <v>2491.362196014848</v>
       </c>
       <c r="U35" t="n">
-        <v>2403.296050165197</v>
+        <v>2403.296050165196</v>
       </c>
       <c r="V35" t="n">
         <v>2233.134626949914</v>
@@ -6977,7 +6977,7 @@
         <v>2037.417547696291</v>
       </c>
       <c r="X35" t="n">
-        <v>1822.205258106561</v>
+        <v>1822.20525810656</v>
       </c>
       <c r="Y35" t="n">
         <v>1595.481253571175</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.2860100971772</v>
+        <v>930.2860100971774</v>
       </c>
       <c r="C36" t="n">
-        <v>768.5823373381319</v>
+        <v>768.5823373381322</v>
       </c>
       <c r="D36" t="n">
-        <v>629.7437003283439</v>
+        <v>629.7437003283444</v>
       </c>
       <c r="E36" t="n">
-        <v>482.7156903852151</v>
+        <v>482.7156903852156</v>
       </c>
       <c r="F36" t="n">
-        <v>348.0218923350895</v>
+        <v>348.0218923350899</v>
       </c>
       <c r="G36" t="n">
         <v>219.3023513726286</v>
@@ -7014,13 +7014,13 @@
         <v>51.37719111503048</v>
       </c>
       <c r="J36" t="n">
-        <v>112.460924061068</v>
+        <v>112.4609240610681</v>
       </c>
       <c r="K36" t="n">
         <v>343.3693719355363</v>
       </c>
       <c r="L36" t="n">
-        <v>711.0977523348507</v>
+        <v>711.0977523348506</v>
       </c>
       <c r="M36" t="n">
         <v>1198.355942532095</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>56.26969657134984</v>
+        <v>56.26969657134972</v>
       </c>
       <c r="C37" t="n">
-        <v>53.4715779218062</v>
+        <v>53.47157792180614</v>
       </c>
       <c r="D37" t="n">
-        <v>53.4715779218062</v>
+        <v>53.47157792180614</v>
       </c>
       <c r="E37" t="n">
-        <v>53.4715779218062</v>
+        <v>53.47157792180614</v>
       </c>
       <c r="F37" t="n">
-        <v>53.4715779218062</v>
+        <v>53.47157792180614</v>
       </c>
       <c r="G37" t="n">
         <v>51.37719111503048</v>
@@ -7093,52 +7093,52 @@
         <v>51.37719111503048</v>
       </c>
       <c r="J37" t="n">
-        <v>101.1568858761386</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="K37" t="n">
-        <v>135.6163424690325</v>
+        <v>85.83664770792436</v>
       </c>
       <c r="L37" t="n">
-        <v>237.3178715362941</v>
+        <v>187.5381767751861</v>
       </c>
       <c r="M37" t="n">
-        <v>356.4653213845831</v>
+        <v>306.685626623475</v>
       </c>
       <c r="N37" t="n">
-        <v>476.0141686523838</v>
+        <v>426.2344738912757</v>
       </c>
       <c r="O37" t="n">
-        <v>575.5183253243331</v>
+        <v>525.738630563225</v>
       </c>
       <c r="P37" t="n">
-        <v>639.3771452619485</v>
+        <v>639.3771452619478</v>
       </c>
       <c r="Q37" t="n">
-        <v>639.3771452619485</v>
+        <v>639.3771452619478</v>
       </c>
       <c r="R37" t="n">
-        <v>639.3771452619485</v>
+        <v>639.3771452619478</v>
       </c>
       <c r="S37" t="n">
-        <v>592.6161286949463</v>
+        <v>592.6161286949457</v>
       </c>
       <c r="T37" t="n">
-        <v>526.287118583048</v>
+        <v>526.2871185830476</v>
       </c>
       <c r="U37" t="n">
-        <v>405.9151396483747</v>
+        <v>405.9151396483744</v>
       </c>
       <c r="V37" t="n">
-        <v>311.9976860955734</v>
+        <v>311.9976860955731</v>
       </c>
       <c r="W37" t="n">
-        <v>192.6591355017486</v>
+        <v>192.6591355017483</v>
       </c>
       <c r="X37" t="n">
-        <v>128.2245222859004</v>
+        <v>128.2245222859002</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.0072143669536</v>
+        <v>73.00721436695342</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1368.255564941932</v>
+        <v>1368.255564941933</v>
       </c>
       <c r="C38" t="n">
-        <v>1153.139657163515</v>
+        <v>1153.139657163516</v>
       </c>
       <c r="D38" t="n">
-        <v>947.1335432795152</v>
+        <v>947.1335432795158</v>
       </c>
       <c r="E38" t="n">
-        <v>719.165674274398</v>
+        <v>719.165674274399</v>
       </c>
       <c r="F38" t="n">
-        <v>471.8323344733444</v>
+        <v>471.8323344733454</v>
       </c>
       <c r="G38" t="n">
-        <v>222.5629431610317</v>
+        <v>222.5629431610328</v>
       </c>
       <c r="H38" t="n">
-        <v>56.73100266751432</v>
+        <v>56.7310026675143</v>
       </c>
       <c r="I38" t="n">
         <v>51.37719111503048</v>
@@ -7199,25 +7199,25 @@
         <v>2568.859555751524</v>
       </c>
       <c r="S38" t="n">
-        <v>2548.829993026035</v>
+        <v>2548.829993026036</v>
       </c>
       <c r="T38" t="n">
         <v>2491.362196014849</v>
       </c>
       <c r="U38" t="n">
-        <v>2403.296050165197</v>
+        <v>2403.296050165198</v>
       </c>
       <c r="V38" t="n">
-        <v>2233.134626949914</v>
+        <v>2233.134626949915</v>
       </c>
       <c r="W38" t="n">
-        <v>2037.417547696291</v>
+        <v>2037.417547696293</v>
       </c>
       <c r="X38" t="n">
-        <v>1822.205258106561</v>
+        <v>1822.205258106562</v>
       </c>
       <c r="Y38" t="n">
-        <v>1595.481253571175</v>
+        <v>1595.481253571176</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.2860100971772</v>
+        <v>930.2860100971782</v>
       </c>
       <c r="C39" t="n">
-        <v>768.5823373381319</v>
+        <v>768.5823373381329</v>
       </c>
       <c r="D39" t="n">
-        <v>629.7437003283439</v>
+        <v>629.743700328345</v>
       </c>
       <c r="E39" t="n">
-        <v>482.7156903852151</v>
+        <v>482.7156903852162</v>
       </c>
       <c r="F39" t="n">
-        <v>348.0218923350895</v>
+        <v>348.0218923350906</v>
       </c>
       <c r="G39" t="n">
         <v>219.3023513726286</v>
@@ -7275,28 +7275,28 @@
         <v>2568.859555751524</v>
       </c>
       <c r="R39" t="n">
-        <v>2509.631531608693</v>
+        <v>2509.631531608694</v>
       </c>
       <c r="S39" t="n">
         <v>2356.99845438182</v>
       </c>
       <c r="T39" t="n">
-        <v>2168.349461662278</v>
+        <v>2168.349461662279</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.855258669421</v>
+        <v>1949.855258669422</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.459636117755</v>
+        <v>1721.459636117756</v>
       </c>
       <c r="W39" t="n">
         <v>1480.143767351065</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.226779228859</v>
+        <v>1282.22677922886</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.705452878438</v>
+        <v>1089.705452878439</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.1753097645741</v>
+        <v>56.26969657134973</v>
       </c>
       <c r="C40" t="n">
+        <v>53.47157792180614</v>
+      </c>
+      <c r="D40" t="n">
+        <v>53.47157792180614</v>
+      </c>
+      <c r="E40" t="n">
+        <v>53.47157792180614</v>
+      </c>
+      <c r="F40" t="n">
+        <v>53.47157792180614</v>
+      </c>
+      <c r="G40" t="n">
         <v>51.37719111503048</v>
       </c>
-      <c r="D40" t="n">
-        <v>64.84960427301019</v>
-      </c>
-      <c r="E40" t="n">
-        <v>79.36374507376823</v>
-      </c>
-      <c r="F40" t="n">
-        <v>93.41563078962183</v>
-      </c>
-      <c r="G40" t="n">
-        <v>91.32124398284614</v>
-      </c>
       <c r="H40" t="n">
-        <v>91.32124398284614</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="I40" t="n">
-        <v>91.32124398284614</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="J40" t="n">
-        <v>91.32124398284614</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="K40" t="n">
-        <v>125.78070057574</v>
+        <v>85.83664770792436</v>
       </c>
       <c r="L40" t="n">
-        <v>227.4822296430017</v>
+        <v>187.5381767751861</v>
       </c>
       <c r="M40" t="n">
-        <v>346.6296794912906</v>
+        <v>306.685626623475</v>
       </c>
       <c r="N40" t="n">
-        <v>466.1785267590913</v>
+        <v>426.2344738912757</v>
       </c>
       <c r="O40" t="n">
-        <v>565.6826834310407</v>
+        <v>525.738630563225</v>
       </c>
       <c r="P40" t="n">
-        <v>629.5415033686561</v>
+        <v>639.3771452619478</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.5415033686561</v>
+        <v>639.3771452619478</v>
       </c>
       <c r="R40" t="n">
-        <v>637.2827584551724</v>
+        <v>639.3771452619478</v>
       </c>
       <c r="S40" t="n">
-        <v>590.5217418881703</v>
+        <v>592.6161286949457</v>
       </c>
       <c r="T40" t="n">
-        <v>524.192731776272</v>
+        <v>526.2871185830476</v>
       </c>
       <c r="U40" t="n">
-        <v>403.8207528415988</v>
+        <v>405.9151396483744</v>
       </c>
       <c r="V40" t="n">
-        <v>309.9032992887975</v>
+        <v>311.9976860955731</v>
       </c>
       <c r="W40" t="n">
-        <v>190.5647486949728</v>
+        <v>192.6591355017483</v>
       </c>
       <c r="X40" t="n">
-        <v>126.1301354791246</v>
+        <v>128.2245222859002</v>
       </c>
       <c r="Y40" t="n">
-        <v>70.91282756017782</v>
+        <v>73.00721436695343</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1368.255564941932</v>
+        <v>1368.255564941933</v>
       </c>
       <c r="C41" t="n">
-        <v>1153.139657163515</v>
+        <v>1153.139657163516</v>
       </c>
       <c r="D41" t="n">
-        <v>947.1335432795152</v>
+        <v>947.1335432795158</v>
       </c>
       <c r="E41" t="n">
-        <v>719.1656742743983</v>
+        <v>719.165674274399</v>
       </c>
       <c r="F41" t="n">
-        <v>471.8323344733444</v>
+        <v>471.8323344733451</v>
       </c>
       <c r="G41" t="n">
-        <v>222.5629431610318</v>
+        <v>222.5629431610323</v>
       </c>
       <c r="H41" t="n">
-        <v>56.73100266751435</v>
+        <v>56.73100266751438</v>
       </c>
       <c r="I41" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J41" t="n">
-        <v>288.2667853808562</v>
+        <v>161.5941848534172</v>
       </c>
       <c r="K41" t="n">
-        <v>693.9928906473638</v>
+        <v>403.8221144638354</v>
       </c>
       <c r="L41" t="n">
-        <v>1044.468063486948</v>
+        <v>754.2972873034194</v>
       </c>
       <c r="M41" t="n">
-        <v>1440.588880968061</v>
+        <v>1150.418104784532</v>
       </c>
       <c r="N41" t="n">
-        <v>1821.848519013344</v>
+        <v>1531.677742829816</v>
       </c>
       <c r="O41" t="n">
-        <v>2242.138246616362</v>
+        <v>1839.447418463775</v>
       </c>
       <c r="P41" t="n">
-        <v>2472.655084405791</v>
+        <v>2233.462431909293</v>
       </c>
       <c r="Q41" t="n">
-        <v>2568.859555751524</v>
+        <v>2493.165078911115</v>
       </c>
       <c r="R41" t="n">
         <v>2568.859555751524</v>
@@ -7442,19 +7442,19 @@
         <v>2491.362196014849</v>
       </c>
       <c r="U41" t="n">
-        <v>2403.296050165197</v>
+        <v>2403.296050165198</v>
       </c>
       <c r="V41" t="n">
-        <v>2233.134626949914</v>
+        <v>2233.134626949915</v>
       </c>
       <c r="W41" t="n">
-        <v>2037.417547696292</v>
+        <v>2037.417547696293</v>
       </c>
       <c r="X41" t="n">
-        <v>1822.205258106561</v>
+        <v>1822.205258106562</v>
       </c>
       <c r="Y41" t="n">
-        <v>1595.481253571175</v>
+        <v>1595.481253571176</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.2860100971782</v>
+        <v>930.2860100971772</v>
       </c>
       <c r="C42" t="n">
-        <v>768.5823373381329</v>
+        <v>768.5823373381319</v>
       </c>
       <c r="D42" t="n">
-        <v>629.743700328345</v>
+        <v>629.7437003283439</v>
       </c>
       <c r="E42" t="n">
-        <v>482.7156903852162</v>
+        <v>482.7156903852151</v>
       </c>
       <c r="F42" t="n">
-        <v>348.0218923350906</v>
+        <v>348.0218923350895</v>
       </c>
       <c r="G42" t="n">
         <v>219.3023513726286</v>
@@ -7491,10 +7491,10 @@
         <v>112.460924061068</v>
       </c>
       <c r="K42" t="n">
-        <v>343.3693719355363</v>
+        <v>343.3693719355362</v>
       </c>
       <c r="L42" t="n">
-        <v>711.0977523348507</v>
+        <v>711.0977523348506</v>
       </c>
       <c r="M42" t="n">
         <v>1198.355942532095</v>
@@ -7512,28 +7512,28 @@
         <v>2568.859555751524</v>
       </c>
       <c r="R42" t="n">
-        <v>2509.631531608694</v>
+        <v>2509.631531608693</v>
       </c>
       <c r="S42" t="n">
         <v>2356.99845438182</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.349461662279</v>
+        <v>2168.349461662278</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.855258669422</v>
+        <v>1949.855258669421</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.459636117756</v>
+        <v>1721.459636117755</v>
       </c>
       <c r="W42" t="n">
         <v>1480.143767351065</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.22677922886</v>
+        <v>1282.226779228859</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.705452878439</v>
+        <v>1089.705452878438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>56.26969657134984</v>
+        <v>54.17530976457415</v>
       </c>
       <c r="C43" t="n">
-        <v>53.4715779218062</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="D43" t="n">
-        <v>53.4715779218062</v>
+        <v>64.84960427301013</v>
       </c>
       <c r="E43" t="n">
-        <v>53.4715779218062</v>
+        <v>79.36374507376811</v>
       </c>
       <c r="F43" t="n">
-        <v>53.4715779218062</v>
+        <v>93.41563078962166</v>
       </c>
       <c r="G43" t="n">
-        <v>51.37719111503048</v>
+        <v>91.32124398284591</v>
       </c>
       <c r="H43" t="n">
-        <v>51.37719111503048</v>
+        <v>98.68374020939963</v>
       </c>
       <c r="I43" t="n">
-        <v>51.37719111503048</v>
+        <v>99.06249906936304</v>
       </c>
       <c r="J43" t="n">
-        <v>51.37719111503048</v>
+        <v>99.06249906936304</v>
       </c>
       <c r="K43" t="n">
-        <v>85.83664770792436</v>
+        <v>133.5219556622569</v>
       </c>
       <c r="L43" t="n">
-        <v>237.3178715362941</v>
+        <v>235.2234847295186</v>
       </c>
       <c r="M43" t="n">
-        <v>356.4653213845831</v>
+        <v>354.3709345778075</v>
       </c>
       <c r="N43" t="n">
-        <v>476.0141686523838</v>
+        <v>473.9197818456082</v>
       </c>
       <c r="O43" t="n">
-        <v>575.5183253243331</v>
+        <v>573.4239385175575</v>
       </c>
       <c r="P43" t="n">
-        <v>639.3771452619485</v>
+        <v>637.2827584551729</v>
       </c>
       <c r="Q43" t="n">
-        <v>639.3771452619485</v>
+        <v>637.2827584551729</v>
       </c>
       <c r="R43" t="n">
-        <v>639.3771452619485</v>
+        <v>637.2827584551729</v>
       </c>
       <c r="S43" t="n">
-        <v>592.6161286949463</v>
+        <v>590.5217418881707</v>
       </c>
       <c r="T43" t="n">
-        <v>526.287118583048</v>
+        <v>524.1927317762725</v>
       </c>
       <c r="U43" t="n">
-        <v>405.9151396483747</v>
+        <v>403.8207528415992</v>
       </c>
       <c r="V43" t="n">
-        <v>311.9976860955734</v>
+        <v>309.9032992887978</v>
       </c>
       <c r="W43" t="n">
-        <v>192.6591355017486</v>
+        <v>190.564748694973</v>
       </c>
       <c r="X43" t="n">
-        <v>128.2245222859004</v>
+        <v>126.1301354791248</v>
       </c>
       <c r="Y43" t="n">
-        <v>73.0072143669536</v>
+        <v>70.91282756017793</v>
       </c>
     </row>
     <row r="44">
@@ -7634,37 +7634,37 @@
         <v>719.165674274398</v>
       </c>
       <c r="F44" t="n">
-        <v>471.8323344733444</v>
+        <v>471.8323344733445</v>
       </c>
       <c r="G44" t="n">
-        <v>222.5629431610317</v>
+        <v>222.5629431610319</v>
       </c>
       <c r="H44" t="n">
-        <v>56.73100266751434</v>
+        <v>56.7310026675144</v>
       </c>
       <c r="I44" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J44" t="n">
-        <v>288.2667853808563</v>
+        <v>288.2667853808562</v>
       </c>
       <c r="K44" t="n">
-        <v>567.3202901199248</v>
+        <v>530.4947149912743</v>
       </c>
       <c r="L44" t="n">
-        <v>1081.293638615598</v>
+        <v>880.9698878308584</v>
       </c>
       <c r="M44" t="n">
-        <v>1477.414456096711</v>
+        <v>1277.090705311971</v>
       </c>
       <c r="N44" t="n">
-        <v>1858.674094141995</v>
+        <v>1658.350343357255</v>
       </c>
       <c r="O44" t="n">
-        <v>2166.443769775954</v>
+        <v>2129.618194647303</v>
       </c>
       <c r="P44" t="n">
-        <v>2396.960607565382</v>
+        <v>2360.135032436732</v>
       </c>
       <c r="Q44" t="n">
         <v>2493.165078911115</v>
@@ -7685,7 +7685,7 @@
         <v>2233.134626949914</v>
       </c>
       <c r="W44" t="n">
-        <v>2037.417547696291</v>
+        <v>2037.417547696292</v>
       </c>
       <c r="X44" t="n">
         <v>1822.205258106561</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.2860100971772</v>
+        <v>930.2860100971782</v>
       </c>
       <c r="C45" t="n">
-        <v>768.5823373381319</v>
+        <v>768.5823373381329</v>
       </c>
       <c r="D45" t="n">
-        <v>629.7437003283439</v>
+        <v>629.743700328345</v>
       </c>
       <c r="E45" t="n">
-        <v>482.7156903852151</v>
+        <v>482.7156903852162</v>
       </c>
       <c r="F45" t="n">
-        <v>348.0218923350895</v>
+        <v>348.0218923350906</v>
       </c>
       <c r="G45" t="n">
-        <v>219.3023513726286</v>
+        <v>219.3023513726297</v>
       </c>
       <c r="H45" t="n">
         <v>119.4510191359428</v>
@@ -7731,7 +7731,7 @@
         <v>343.3693719355363</v>
       </c>
       <c r="L45" t="n">
-        <v>711.0977523348508</v>
+        <v>711.0977523348506</v>
       </c>
       <c r="M45" t="n">
         <v>1198.355942532095</v>
@@ -7749,28 +7749,28 @@
         <v>2568.859555751524</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.631531608693</v>
+        <v>2509.631531608694</v>
       </c>
       <c r="S45" t="n">
         <v>2356.99845438182</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.349461662278</v>
+        <v>2168.349461662279</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.855258669421</v>
+        <v>1949.855258669422</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.459636117755</v>
+        <v>1721.459636117756</v>
       </c>
       <c r="W45" t="n">
         <v>1480.143767351065</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.226779228859</v>
+        <v>1282.22677922886</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.705452878438</v>
+        <v>1089.705452878439</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>56.26969657134978</v>
+        <v>54.17530976457415</v>
       </c>
       <c r="C46" t="n">
-        <v>53.47157792180617</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="D46" t="n">
-        <v>53.47157792180617</v>
+        <v>64.84960427301013</v>
       </c>
       <c r="E46" t="n">
-        <v>53.47157792180617</v>
+        <v>64.84960427301013</v>
       </c>
       <c r="F46" t="n">
-        <v>53.47157792180617</v>
+        <v>78.90148998886367</v>
       </c>
       <c r="G46" t="n">
-        <v>51.37719111503048</v>
+        <v>76.80710318208793</v>
       </c>
       <c r="H46" t="n">
-        <v>51.37719111503048</v>
+        <v>81.77962293590629</v>
       </c>
       <c r="I46" t="n">
-        <v>51.37719111503048</v>
+        <v>81.77962293590629</v>
       </c>
       <c r="J46" t="n">
-        <v>51.37719111503048</v>
+        <v>81.77962293590629</v>
       </c>
       <c r="K46" t="n">
-        <v>85.83664770792436</v>
+        <v>116.2390795288002</v>
       </c>
       <c r="L46" t="n">
-        <v>187.5381767751861</v>
+        <v>217.9406085960618</v>
       </c>
       <c r="M46" t="n">
-        <v>306.685626623475</v>
+        <v>337.0880584443508</v>
       </c>
       <c r="N46" t="n">
-        <v>426.2344738912757</v>
+        <v>456.6369057121515</v>
       </c>
       <c r="O46" t="n">
-        <v>525.738630563225</v>
+        <v>556.1410623841008</v>
       </c>
       <c r="P46" t="n">
-        <v>589.5974505008404</v>
+        <v>619.9998823217162</v>
       </c>
       <c r="Q46" t="n">
-        <v>639.377145261948</v>
+        <v>619.9998823217162</v>
       </c>
       <c r="R46" t="n">
-        <v>639.377145261948</v>
+        <v>637.2827584551729</v>
       </c>
       <c r="S46" t="n">
-        <v>592.6161286949459</v>
+        <v>590.5217418881707</v>
       </c>
       <c r="T46" t="n">
-        <v>526.2871185830478</v>
+        <v>524.1927317762725</v>
       </c>
       <c r="U46" t="n">
-        <v>405.9151396483746</v>
+        <v>403.8207528415992</v>
       </c>
       <c r="V46" t="n">
-        <v>311.9976860955733</v>
+        <v>309.9032992887978</v>
       </c>
       <c r="W46" t="n">
-        <v>192.6591355017485</v>
+        <v>190.564748694973</v>
       </c>
       <c r="X46" t="n">
-        <v>128.2245222859003</v>
+        <v>126.1301354791248</v>
       </c>
       <c r="Y46" t="n">
-        <v>73.00721436695352</v>
+        <v>70.91282756017793</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
-        <v>421.3890363425141</v>
+        <v>339.0773858004383</v>
       </c>
       <c r="L2" t="n">
-        <v>460.6479283735075</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
         <v>584.3675935406823</v>
@@ -8061,19 +8061,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
-        <v>115.4839025616399</v>
+        <v>601.6322369109515</v>
       </c>
       <c r="N3" t="n">
-        <v>508.8034507045231</v>
+        <v>592.86347541702</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>213.3102554934612</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
         <v>421.3890363425141</v>
@@ -8231,10 +8231,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>418.3383206229274</v>
+        <v>358.6869826199744</v>
       </c>
       <c r="Q5" t="n">
-        <v>193.6978373157983</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8295,25 +8295,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>601.632236910951</v>
+        <v>601.6322369109515</v>
       </c>
       <c r="N6" t="n">
-        <v>592.8634754170193</v>
+        <v>578.1819654155623</v>
       </c>
       <c r="O6" t="n">
-        <v>173.6212949476264</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>102.2176055929986</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8778,7 +8778,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>552.0833534258492</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>140.338000486298</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>140.338000486298</v>
+        <v>140.3380004863003</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9246,7 +9246,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>411.030715673724</v>
+        <v>411.0307156737263</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
@@ -9477,10 +9477,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>102.2176055929986</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>272.743074895582</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>490.3826130763138</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9717,7 +9717,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>211.042334546045</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>140.3380004862989</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -10431,7 +10431,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>482.0924488944962</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
@@ -10671,7 +10671,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>605.4165828749999</v>
+        <v>605.4165828749997</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -11379,7 +11379,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944971</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>279.3559559753634</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>73.73631799713907</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>59.7027976693718</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>74.23179133064619</v>
+        <v>74.23179133064623</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>121.5458506173955</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>222.8623332155425</v>
@@ -23321,7 +23321,7 @@
         <v>248.1624326934994</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>267.4626909262461</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>40.79402609303935</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>15.1530729212131</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>36.94507359255743</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>19.0020254216938</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>279.3559559753634</v>
       </c>
       <c r="C14" t="n">
-        <v>267.3672729330451</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>258.3485769775731</v>
+        <v>202.8201752093666</v>
       </c>
       <c r="E14" t="n">
-        <v>197.5801807062865</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>74.23179133064619</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>141.5880086235682</v>
       </c>
       <c r="V14" t="n">
-        <v>222.8623332155425</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>248.1624326934994</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>55.94709901425171</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>55.94709901425171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>89.06539591339873</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>216.2294497816569</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24494,13 +24494,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>84.77920801884994</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>220.5156376762044</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>67.10470003956289</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24695,10 +24695,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>216.2294497816569</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>57.35610213003368</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,10 +24728,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.88509579130813</v>
+        <v>71.88509579130809</v>
       </c>
       <c r="T29" t="n">
-        <v>17.18030012208999</v>
+        <v>108.9489477341494</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>6.536993168992922e-13</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>800416.288369381</v>
+        <v>800416.2883693811</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>859597.6445359382</v>
+        <v>859597.6445359384</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>886936.7979679303</v>
+        <v>886936.7979679301</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>479765.0378088636</v>
+        <v>479765.0378088634</v>
       </c>
       <c r="C2" t="n">
         <v>479765.0378088634</v>
@@ -26320,40 +26320,40 @@
         <v>479765.0378088634</v>
       </c>
       <c r="E2" t="n">
-        <v>431854.4527229844</v>
+        <v>431854.4527229845</v>
       </c>
       <c r="F2" t="n">
         <v>431854.4527229845</v>
       </c>
       <c r="G2" t="n">
-        <v>479765.0378088639</v>
+        <v>479765.0378088632</v>
       </c>
       <c r="H2" t="n">
-        <v>479765.0378088633</v>
+        <v>479765.0378088637</v>
       </c>
       <c r="I2" t="n">
-        <v>479765.0378088637</v>
+        <v>479765.0378088634</v>
       </c>
       <c r="J2" t="n">
-        <v>464576.6192355341</v>
+        <v>464576.6192355339</v>
       </c>
       <c r="K2" t="n">
         <v>464576.6192355339</v>
       </c>
       <c r="L2" t="n">
-        <v>479765.0378088637</v>
+        <v>479765.0378088635</v>
       </c>
       <c r="M2" t="n">
         <v>479765.037808863</v>
       </c>
       <c r="N2" t="n">
-        <v>479765.0378088631</v>
+        <v>479765.0378088632</v>
       </c>
       <c r="O2" t="n">
-        <v>479765.0378088631</v>
+        <v>479765.0378088632</v>
       </c>
       <c r="P2" t="n">
-        <v>479765.0378088631</v>
+        <v>479765.0378088633</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162919.4882521442</v>
+        <v>162919.4882521444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12162.67631001744</v>
+        <v>12162.67631001726</v>
       </c>
       <c r="E3" t="n">
-        <v>116806.7012490488</v>
+        <v>116806.701249049</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>50654.60378074725</v>
+        <v>50654.60378074711</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>207852.1435699667</v>
+        <v>207852.1435699668</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>75041.11328588976</v>
+        <v>75041.11328588954</v>
       </c>
       <c r="M3" t="n">
-        <v>17258.15344931721</v>
+        <v>17258.15344931732</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>39820.47116870365</v>
+        <v>39820.47116870375</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217789.9834667899</v>
+        <v>217789.9834667897</v>
       </c>
       <c r="C4" t="n">
-        <v>217789.9834667898</v>
+        <v>217789.9834667897</v>
       </c>
       <c r="D4" t="n">
         <v>208183.1070948236</v>
       </c>
       <c r="E4" t="n">
-        <v>156767.428813919</v>
+        <v>156767.4288139191</v>
       </c>
       <c r="F4" t="n">
         <v>156767.4288139191</v>
       </c>
       <c r="G4" t="n">
-        <v>200277.040454205</v>
+        <v>200277.0404542049</v>
       </c>
       <c r="H4" t="n">
-        <v>200277.040454205</v>
+        <v>200277.0404542049</v>
       </c>
       <c r="I4" t="n">
         <v>200277.0404542049</v>
@@ -26445,7 +26445,7 @@
         <v>184429.4082276575</v>
       </c>
       <c r="L4" t="n">
-        <v>197987.9619999301</v>
+        <v>197987.9619999302</v>
       </c>
       <c r="M4" t="n">
         <v>197569.3581676765</v>
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63185.41872843811</v>
+        <v>63185.41872843815</v>
       </c>
       <c r="C5" t="n">
-        <v>63185.41872843811</v>
+        <v>63185.41872843815</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>46408.37830756471</v>
+        <v>46408.37830756475</v>
       </c>
       <c r="F5" t="n">
-        <v>46408.37830756471</v>
+        <v>46408.37830756475</v>
       </c>
       <c r="G5" t="n">
+        <v>51731.48066411928</v>
+      </c>
+      <c r="H5" t="n">
+        <v>51731.48066411929</v>
+      </c>
+      <c r="I5" t="n">
         <v>51731.48066411926</v>
-      </c>
-      <c r="H5" t="n">
-        <v>51731.48066411926</v>
-      </c>
-      <c r="I5" t="n">
-        <v>51731.48066411925</v>
       </c>
       <c r="J5" t="n">
         <v>56094.50917384638</v>
@@ -26497,7 +26497,7 @@
         <v>56094.50917384638</v>
       </c>
       <c r="L5" t="n">
-        <v>56276.58009985786</v>
+        <v>56276.58009985789</v>
       </c>
       <c r="M5" t="n">
         <v>53020.52544612265</v>
@@ -26509,7 +26509,7 @@
         <v>53020.52544612265</v>
       </c>
       <c r="P5" t="n">
-        <v>53020.52544612266</v>
+        <v>53020.52544612265</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35870.14736149141</v>
+        <v>35870.14736149125</v>
       </c>
       <c r="C6" t="n">
         <v>198789.6356136355</v>
       </c>
       <c r="D6" t="n">
-        <v>193853.219767111</v>
+        <v>193853.2197671112</v>
       </c>
       <c r="E6" t="n">
-        <v>111871.9443524518</v>
+        <v>111680.3020121081</v>
       </c>
       <c r="F6" t="n">
-        <v>228678.6456015008</v>
+        <v>228487.0032611571</v>
       </c>
       <c r="G6" t="n">
-        <v>177101.9129097924</v>
+        <v>177101.9129097919</v>
       </c>
       <c r="H6" t="n">
-        <v>227756.5166905391</v>
+        <v>227756.5166905395</v>
       </c>
       <c r="I6" t="n">
-        <v>227756.5166905395</v>
+        <v>227756.5166905394</v>
       </c>
       <c r="J6" t="n">
-        <v>16200.5582640636</v>
+        <v>16139.80458976982</v>
       </c>
       <c r="K6" t="n">
-        <v>224052.70183403</v>
+        <v>223991.9481597367</v>
       </c>
       <c r="L6" t="n">
-        <v>150459.382423186</v>
+        <v>150459.3824231859</v>
       </c>
       <c r="M6" t="n">
-        <v>211917.0007457466</v>
+        <v>211917.0007457465</v>
       </c>
       <c r="N6" t="n">
-        <v>229175.154195064</v>
+        <v>229175.1541950641</v>
       </c>
       <c r="O6" t="n">
         <v>189354.6830263603</v>
       </c>
       <c r="P6" t="n">
-        <v>229175.1541950639</v>
+        <v>229175.1541950641</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="F2" t="n">
         <v>110.7471481474756</v>
       </c>
       <c r="G2" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="H2" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="I2" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="J2" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="K2" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="L2" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="M2" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="N2" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="O2" t="n">
         <v>165.1496723798883</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>486.1483343493111</v>
+        <v>486.1483343493117</v>
       </c>
       <c r="C4" t="n">
-        <v>486.1483343493111</v>
+        <v>486.1483343493117</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>608.6855907657884</v>
+        <v>608.6855907657891</v>
       </c>
       <c r="F4" t="n">
-        <v>608.6855907657884</v>
+        <v>608.6855907657891</v>
       </c>
       <c r="G4" t="n">
-        <v>608.6855907657884</v>
+        <v>608.685590765789</v>
       </c>
       <c r="H4" t="n">
-        <v>608.6855907657884</v>
+        <v>608.6855907657891</v>
       </c>
       <c r="I4" t="n">
-        <v>608.6855907657881</v>
+        <v>608.6855907657887</v>
       </c>
       <c r="J4" t="n">
         <v>764.7521453543584</v>
@@ -26817,10 +26817,10 @@
         <v>764.7521453543584</v>
       </c>
       <c r="L4" t="n">
-        <v>725.5972784386792</v>
+        <v>725.5972784386797</v>
       </c>
       <c r="M4" t="n">
-        <v>642.214888937881</v>
+        <v>642.2148889378809</v>
       </c>
       <c r="N4" t="n">
         <v>642.214888937881</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>63.31825472593405</v>
+        <v>63.31825472593388</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>49.77558896087959</v>
+        <v>49.77558896087977</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>93.80139160736221</v>
+        <v>93.80139160736192</v>
       </c>
       <c r="M2" t="n">
-        <v>21.57269181164651</v>
+        <v>21.57269181164665</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>49.77558896087956</v>
+        <v>49.77558896087969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>486.1483343493111</v>
+        <v>486.1483343493117</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>39.15486691567924</v>
+        <v>39.15486691567867</v>
       </c>
       <c r="E4" t="n">
-        <v>83.38238950079813</v>
+        <v>83.38238950079881</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>63.31825472593405</v>
+        <v>63.31825472593388</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>49.77558896087959</v>
+        <v>49.77558896087977</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>486.1483343493111</v>
+        <v>486.1483343493117</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>39.15486691567924</v>
+        <v>39.15486691567867</v>
       </c>
       <c r="M4" t="n">
-        <v>83.38238950079813</v>
+        <v>83.38238950079881</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>382.4529588467036</v>
       </c>
       <c r="F2" t="n">
-        <v>100.5852841074097</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
@@ -27445,7 +27445,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>29.8422936553894</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>159.4549083283426</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>169.0508498394078</v>
       </c>
       <c r="C4" t="n">
         <v>167.9198098429365</v>
@@ -27543,10 +27543,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
@@ -27585,7 +27585,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>230.8471636524779</v>
@@ -27600,7 +27600,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>4.23138500691411</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
@@ -27676,10 +27676,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>173.0096778971289</v>
       </c>
       <c r="X5" t="n">
-        <v>97.00887498095562</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27698,22 +27698,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>33.83200242159592</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,19 +27743,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>13.12174572626705</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>389.9168265406718</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -27862,13 +27862,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>133.1183539149889</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27944,7 +27944,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>81.43664713248184</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -27989,7 +27989,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>116.7927962080469</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28011,22 +28011,22 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>99.7155896416493</v>
+        <v>100.9901741547916</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="C11" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="D11" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="E11" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="F11" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="G11" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="H11" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="I11" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="J11" t="n">
-        <v>67.64264976193283</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="K11" t="n">
-        <v>110.7471481474756</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,40 +28123,40 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>110.7471481474756</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>67.64264976193519</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="R11" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="S11" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="T11" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="U11" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="V11" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="W11" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="X11" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="Y11" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
     </row>
     <row r="12">
@@ -28181,13 +28181,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>31.26768143193668</v>
+        <v>62.72741060554978</v>
       </c>
       <c r="H12" t="n">
-        <v>98.85281891431895</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.39308974070319</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="C13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="D13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="E13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="F13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="G13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="H13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="I13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="J13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="K13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="L13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="M13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="N13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="O13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="P13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="Q13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="R13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="S13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="T13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="U13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="V13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="W13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="X13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
       <c r="Y13" t="n">
-        <v>110.7471481474756</v>
+        <v>110.7471481474755</v>
       </c>
     </row>
     <row r="14">
@@ -28348,16 +28348,16 @@
         <v>110.7471481474756</v>
       </c>
       <c r="J14" t="n">
-        <v>67.64264976193289</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>110.7471481474756</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>67.6426497619355</v>
       </c>
       <c r="N14" t="n">
         <v>110.7471481474756</v>
@@ -28369,7 +28369,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>110.7471481474756</v>
       </c>
       <c r="R14" t="n">
         <v>110.7471481474756</v>
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>4.091666704151365</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.39308974070319</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,7 +28454,7 @@
         <v>58.63574390140148</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>71.48475644485168</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="C17" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="D17" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="E17" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="F17" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="G17" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="H17" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="I17" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28597,40 +28597,40 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>48.13783140097826</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>174.0654028734096</v>
+        <v>48.13783140098022</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="R17" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="S17" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="T17" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="U17" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="V17" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="W17" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="X17" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="Y17" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
     </row>
     <row r="18">
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>4.091666704149162</v>
       </c>
       <c r="I18" t="n">
         <v>67.39308974070319</v>
@@ -28691,7 +28691,7 @@
         <v>58.63574390140148</v>
       </c>
       <c r="S18" t="n">
-        <v>4.091666704151464</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>140.3355887821665</v>
+        <v>167.2231153185963</v>
       </c>
       <c r="H19" t="n">
         <v>157.7128075045815</v>
@@ -28770,25 +28770,25 @@
         <v>147.692221740033</v>
       </c>
       <c r="S19" t="n">
-        <v>174.0654028734096</v>
+        <v>147.1778763369809</v>
       </c>
       <c r="T19" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="U19" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="V19" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="W19" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="X19" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
     </row>
     <row r="20">
@@ -28798,40 +28798,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="C20" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="D20" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="E20" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="F20" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="G20" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="H20" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="I20" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>133.5126294100665</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="L20" t="n">
-        <v>174.0654028734096</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>48.13783140097814</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>174.0654028734096</v>
+        <v>88.69060486432403</v>
       </c>
       <c r="S20" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="T20" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="U20" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="V20" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="W20" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="X20" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="Y20" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
     </row>
     <row r="21">
@@ -28895,10 +28895,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>98.85281891431895</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>31.26768143193403</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28934,7 +28934,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>130.1205003462556</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>141.032283306508</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -29007,25 +29007,25 @@
         <v>147.692221740033</v>
       </c>
       <c r="S22" t="n">
-        <v>147.1778763369798</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="T22" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="U22" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="V22" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="W22" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="X22" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="Y22" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="C23" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="D23" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="E23" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="F23" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="G23" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="H23" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="I23" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29071,40 +29071,40 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>174.0654028734096</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>133.5126294100619</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>133.5126294100648</v>
       </c>
       <c r="R23" t="n">
         <v>88.69060486432403</v>
       </c>
       <c r="S23" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="T23" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="U23" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="V23" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="W23" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="X23" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="Y23" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
     </row>
     <row r="24">
@@ -29129,13 +29129,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.4323455528363</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.688154793418462</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29168,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>130.120500346257</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="C25" t="n">
-        <v>141.0322833065067</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>167.2231153185963</v>
+        <v>140.3355887821678</v>
       </c>
       <c r="H25" t="n">
         <v>157.7128075045815</v>
@@ -29244,25 +29244,25 @@
         <v>147.692221740033</v>
       </c>
       <c r="S25" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="T25" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="U25" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="V25" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="W25" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="X25" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
       <c r="Y25" t="n">
-        <v>174.0654028734096</v>
+        <v>174.0654028734095</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="C26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="D26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="E26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="F26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="G26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="H26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="I26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="J26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="K26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="L26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="M26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="N26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="O26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="P26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868132</v>
       </c>
       <c r="R26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="S26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="T26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="U26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="V26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="W26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="X26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="Y26" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
     </row>
     <row r="27">
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>-9.023892744153272e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="C28" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="D28" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="E28" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="F28" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="G28" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="H28" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="I28" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="J28" t="n">
-        <v>113.093843686814</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="K28" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="L28" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="M28" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="N28" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="O28" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="P28" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="Q28" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="R28" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="S28" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="T28" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="U28" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="V28" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="W28" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="X28" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="C29" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="D29" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="E29" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="F29" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="G29" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="H29" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="I29" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="J29" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="K29" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="L29" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="M29" t="n">
-        <v>113.093843686814</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="N29" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="O29" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="P29" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="Q29" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="R29" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="S29" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="T29" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="U29" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="V29" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="W29" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="X29" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="Y29" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
     </row>
     <row r="30">
@@ -29609,7 +29609,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>-1.165290086646564e-12</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="C31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="D31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="E31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="F31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="G31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="H31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="I31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="J31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="K31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="L31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="M31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="N31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="O31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="P31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="Q31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="R31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="S31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="T31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="U31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="V31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="W31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="X31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="Y31" t="n">
-        <v>113.0938436868136</v>
+        <v>113.0938436868137</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="C32" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="D32" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="E32" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="F32" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="G32" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="H32" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="I32" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="J32" t="n">
-        <v>143.5769805682418</v>
+        <v>1.345256934034467</v>
       </c>
       <c r="K32" t="n">
-        <v>1.345256934030829</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="N32" t="n">
-        <v>143.5769805682418</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>143.5769805682418</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="Q32" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="R32" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="S32" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="T32" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="U32" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="V32" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="W32" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="X32" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="Y32" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="C34" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="D34" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="E34" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="F34" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="G34" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="H34" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="I34" t="n">
         <v>142.5373983489465</v>
       </c>
       <c r="J34" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29940,40 +29940,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>121.024389742012</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>121.0243897420138</v>
       </c>
       <c r="Q34" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="R34" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="S34" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="T34" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="U34" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="V34" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="W34" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="X34" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
       <c r="Y34" t="n">
-        <v>143.5769805682418</v>
+        <v>143.5769805682417</v>
       </c>
     </row>
     <row r="35">
@@ -29983,37 +29983,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="C35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="D35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="E35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="F35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="G35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="H35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="I35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>37.19755063499969</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30022,37 +30022,37 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>37.19755063500048</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Q35" t="n">
-        <v>165.1496723798883</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="S35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="T35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="U35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="V35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="W35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="X35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Y35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
     </row>
     <row r="36">
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>-9.023892744153272e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="C37" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,7 +30156,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="H37" t="n">
         <v>157.7128075045815</v>
@@ -30165,7 +30165,7 @@
         <v>142.5373983489465</v>
       </c>
       <c r="J37" t="n">
-        <v>109.213473175366</v>
+        <v>58.93095321465074</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>50.28251996071454</v>
       </c>
       <c r="Q37" t="n">
         <v>37.52931879979313</v>
@@ -30192,25 +30192,25 @@
         <v>147.692221740033</v>
       </c>
       <c r="S37" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="T37" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="U37" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="V37" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="W37" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="X37" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="C38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="D38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="E38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="F38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="G38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="H38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="I38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30262,34 +30262,34 @@
         <v>37.19755063500025</v>
       </c>
       <c r="P38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Q38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="R38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="S38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="T38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="U38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="V38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="W38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="X38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Y38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
     </row>
     <row r="39">
@@ -30314,7 +30314,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>-9.023892744153272e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30378,22 +30378,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="C40" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="D40" t="n">
-        <v>165.1496723798883</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>165.1496723798883</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>165.1496723798883</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="H40" t="n">
         <v>157.7128075045815</v>
@@ -30420,34 +30420,34 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>50.28251996071454</v>
       </c>
       <c r="Q40" t="n">
         <v>37.52931879979313</v>
       </c>
       <c r="R40" t="n">
-        <v>155.5116713223727</v>
+        <v>147.692221740033</v>
       </c>
       <c r="S40" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="T40" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="U40" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="V40" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="W40" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="X40" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Y40" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
     </row>
     <row r="41">
@@ -30481,31 +30481,31 @@
         <v>165.1496723798883</v>
       </c>
       <c r="J41" t="n">
+        <v>37.19755063500043</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>165.1496723798883</v>
       </c>
-      <c r="K41" t="n">
+      <c r="Q41" t="n">
         <v>165.1496723798883</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>113.6566181505646</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
       <c r="R41" t="n">
-        <v>88.69060486432403</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="S41" t="n">
         <v>165.1496723798883</v>
@@ -30551,7 +30551,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>-9.023892744153272e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30621,22 +30621,22 @@
         <v>165.1496723798883</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="G43" t="n">
         <v>165.1496723798883</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7128075045815</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="I43" t="n">
-        <v>142.5373983489465</v>
+        <v>142.9199830559802</v>
       </c>
       <c r="J43" t="n">
         <v>58.93095321465074</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>50.28251996071526</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30721,25 +30721,25 @@
         <v>165.1496723798883</v>
       </c>
       <c r="K44" t="n">
-        <v>37.19755063500043</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>165.1496723798883</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>37.19755063500025</v>
       </c>
       <c r="R44" t="n">
         <v>165.1496723798883</v>
@@ -30791,7 +30791,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>-9.023892744153272e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30858,19 +30858,19 @@
         <v>165.1496723798883</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="G46" t="n">
         <v>165.1496723798883</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7128075045815</v>
+        <v>162.7355547306607</v>
       </c>
       <c r="I46" t="n">
         <v>142.5373983489465</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.81183876050792</v>
+        <v>37.52931879979313</v>
       </c>
       <c r="R46" t="n">
-        <v>147.692221740033</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="S46" t="n">
         <v>165.1496723798883</v>
@@ -34699,10 +34699,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>242.5660323684674</v>
+        <v>160.2543818263916</v>
       </c>
       <c r="L2" t="n">
-        <v>269.0877162103929</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
         <v>397.2112790435232</v>
@@ -34781,19 +34781,19 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>486.1483343493117</v>
       </c>
       <c r="N3" t="n">
-        <v>402.0883096368148</v>
+        <v>486.1483343493117</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>104.4560494693179</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
         <v>242.5660323684674</v>
@@ -34951,10 +34951,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>230.4615115717709</v>
+        <v>170.8101735688179</v>
       </c>
       <c r="Q5" t="n">
-        <v>13.07446429280808</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>486.1483343493111</v>
+        <v>486.1483343493117</v>
       </c>
       <c r="N6" t="n">
-        <v>486.1483343493111</v>
+        <v>471.466824347854</v>
       </c>
       <c r="O6" t="n">
-        <v>57.76184633651528</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>141.7753958323736</v>
+        <v>184.8798942179163</v>
       </c>
       <c r="K11" t="n">
-        <v>355.4218245216353</v>
+        <v>244.6746763741597</v>
       </c>
       <c r="L11" t="n">
         <v>354.0153261005899</v>
@@ -35419,19 +35419,19 @@
         <v>400.12203785971</v>
       </c>
       <c r="N11" t="n">
-        <v>495.8578936477621</v>
+        <v>385.1107455002866</v>
       </c>
       <c r="O11" t="n">
         <v>310.8784602363221</v>
       </c>
       <c r="P11" t="n">
-        <v>232.8452906963923</v>
+        <v>300.4879404583275</v>
       </c>
       <c r="Q11" t="n">
-        <v>97.176233682559</v>
+        <v>207.9233818300345</v>
       </c>
       <c r="R11" t="n">
-        <v>22.05654328315154</v>
+        <v>22.05654328315151</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>61.7007403495329</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>233.2408564388568</v>
@@ -35498,7 +35498,7 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N12" t="n">
-        <v>518.736734966704</v>
+        <v>447.6750017459337</v>
       </c>
       <c r="O12" t="n">
         <v>398.2718280705802</v>
@@ -35507,7 +35507,7 @@
         <v>306.8410642033352</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.73498324910418</v>
+        <v>160.49745681941</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>51.81619493282484</v>
+        <v>51.81619493282481</v>
       </c>
       <c r="K13" t="n">
         <v>145.5546800594896</v>
@@ -35586,7 +35586,7 @@
         <v>175.2510066703194</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.21782934768244</v>
+        <v>73.21782934768241</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>141.7753958323736</v>
+        <v>74.13274607044073</v>
       </c>
       <c r="K14" t="n">
         <v>244.6746763741597</v>
       </c>
       <c r="L14" t="n">
-        <v>464.7624742480655</v>
+        <v>354.0153261005899</v>
       </c>
       <c r="M14" t="n">
-        <v>400.12203785971</v>
+        <v>467.7646876216455</v>
       </c>
       <c r="N14" t="n">
         <v>495.8578936477621</v>
@@ -35665,7 +35665,7 @@
         <v>232.8452906963923</v>
       </c>
       <c r="Q14" t="n">
-        <v>97.176233682559</v>
+        <v>207.9233818300346</v>
       </c>
       <c r="R14" t="n">
         <v>22.05654328315154</v>
@@ -35744,7 +35744,7 @@
         <v>306.8410642033352</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.73498324910418</v>
+        <v>27.73498324910647</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>3.615457056562279</v>
+        <v>3.615457056562108</v>
       </c>
       <c r="J17" t="n">
         <v>74.13274607044073</v>
@@ -35893,19 +35893,19 @@
         <v>400.12203785971</v>
       </c>
       <c r="N17" t="n">
-        <v>433.2485769012648</v>
+        <v>385.1107455002866</v>
       </c>
       <c r="O17" t="n">
         <v>310.8784602363221</v>
       </c>
       <c r="P17" t="n">
-        <v>406.9106935698019</v>
+        <v>280.9831220973725</v>
       </c>
       <c r="Q17" t="n">
-        <v>97.176233682559</v>
+        <v>271.2416365559685</v>
       </c>
       <c r="R17" t="n">
-        <v>85.37479800908559</v>
+        <v>85.37479800908542</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>233.2408564388568</v>
       </c>
       <c r="L18" t="n">
-        <v>300.3810752633831</v>
+        <v>300.3810752633853</v>
       </c>
       <c r="M18" t="n">
         <v>492.1799900982264</v>
@@ -36115,19 +36115,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>3.615457056562279</v>
+        <v>3.615457056562108</v>
       </c>
       <c r="J20" t="n">
-        <v>74.13274607044073</v>
+        <v>207.6453754805072</v>
       </c>
       <c r="K20" t="n">
-        <v>244.6746763741597</v>
+        <v>418.7400792475692</v>
       </c>
       <c r="L20" t="n">
-        <v>528.0807289739995</v>
+        <v>354.0153261005899</v>
       </c>
       <c r="M20" t="n">
-        <v>448.2598692606881</v>
+        <v>400.12203785971</v>
       </c>
       <c r="N20" t="n">
         <v>385.1107455002866</v>
@@ -36142,7 +36142,7 @@
         <v>97.176233682559</v>
       </c>
       <c r="R20" t="n">
-        <v>85.37479800908559</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>61.7007403495329</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>233.2408564388568</v>
+        <v>162.1791232180866</v>
       </c>
       <c r="L21" t="n">
         <v>371.442808484156</v>
@@ -36209,7 +36209,7 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N21" t="n">
-        <v>385.9742613963983</v>
+        <v>518.736734966704</v>
       </c>
       <c r="O21" t="n">
         <v>398.2718280705802</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>3.615457056562279</v>
+        <v>3.615457056562108</v>
       </c>
       <c r="J23" t="n">
         <v>74.13274607044073</v>
@@ -36367,16 +36367,16 @@
         <v>400.12203785971</v>
       </c>
       <c r="N23" t="n">
-        <v>559.1761483736962</v>
+        <v>385.1107455002866</v>
       </c>
       <c r="O23" t="n">
         <v>310.8784602363221</v>
       </c>
       <c r="P23" t="n">
-        <v>366.3579201064542</v>
+        <v>406.9106935698018</v>
       </c>
       <c r="Q23" t="n">
-        <v>97.176233682559</v>
+        <v>230.6888630926238</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>61.7007403495329</v>
       </c>
       <c r="K24" t="n">
-        <v>100.4783828685496</v>
+        <v>233.2408564388568</v>
       </c>
       <c r="L24" t="n">
         <v>371.442808484156</v>
@@ -36455,7 +36455,7 @@
         <v>306.8410642033352</v>
       </c>
       <c r="Q24" t="n">
-        <v>160.49745681941</v>
+        <v>27.7349832491051</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>187.2265897572544</v>
       </c>
       <c r="K26" t="n">
-        <v>357.7685200609733</v>
+        <v>357.7685200609734</v>
       </c>
       <c r="L26" t="n">
-        <v>467.1091697874035</v>
+        <v>467.1091697874036</v>
       </c>
       <c r="M26" t="n">
         <v>513.2158815465236</v>
@@ -36613,10 +36613,10 @@
         <v>345.939134383206</v>
       </c>
       <c r="Q26" t="n">
-        <v>210.2700773693726</v>
+        <v>210.2700773693722</v>
       </c>
       <c r="R26" t="n">
-        <v>24.40323882248961</v>
+        <v>24.40323882248966</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>54.16289047216324</v>
+        <v>54.16289047216295</v>
       </c>
       <c r="K28" t="n">
         <v>147.9013755988277</v>
       </c>
       <c r="L28" t="n">
-        <v>215.8226609264719</v>
+        <v>215.822660926472</v>
       </c>
       <c r="M28" t="n">
-        <v>233.4448031295297</v>
+        <v>233.4448031295298</v>
       </c>
       <c r="N28" t="n">
         <v>233.8502550684305</v>
@@ -36771,7 +36771,7 @@
         <v>177.5977022096575</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.56452488702051</v>
+        <v>75.56452488702055</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>187.2265897572544</v>
       </c>
       <c r="K29" t="n">
-        <v>357.7685200609733</v>
+        <v>357.7685200609734</v>
       </c>
       <c r="L29" t="n">
-        <v>467.1091697874035</v>
+        <v>467.1091697874036</v>
       </c>
       <c r="M29" t="n">
-        <v>513.215881546524</v>
+        <v>513.2158815465236</v>
       </c>
       <c r="N29" t="n">
         <v>498.2045891871002</v>
@@ -36850,10 +36850,10 @@
         <v>345.939134383206</v>
       </c>
       <c r="Q29" t="n">
-        <v>210.2700773693726</v>
+        <v>210.2700773693727</v>
       </c>
       <c r="R29" t="n">
-        <v>24.40323882248961</v>
+        <v>24.40323882248964</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>54.16289047216291</v>
+        <v>54.16289047216294</v>
       </c>
       <c r="K31" t="n">
         <v>147.9013755988277</v>
@@ -37008,7 +37008,7 @@
         <v>177.5977022096575</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.56452488702051</v>
+        <v>75.56452488702054</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>217.7097266386825</v>
+        <v>75.4780030044752</v>
       </c>
       <c r="K32" t="n">
-        <v>246.0199333081906</v>
+        <v>388.2516569424014</v>
       </c>
       <c r="L32" t="n">
-        <v>354.0153261005899</v>
+        <v>497.5923066688316</v>
       </c>
       <c r="M32" t="n">
-        <v>400.12203785971</v>
+        <v>543.6990184279517</v>
       </c>
       <c r="N32" t="n">
-        <v>528.6877260685284</v>
+        <v>385.1107455002866</v>
       </c>
       <c r="O32" t="n">
-        <v>454.4554408045639</v>
+        <v>310.8784602363221</v>
       </c>
       <c r="P32" t="n">
-        <v>376.4222712646342</v>
+        <v>376.422271264634</v>
       </c>
       <c r="Q32" t="n">
-        <v>240.7532142508008</v>
+        <v>240.7532142508007</v>
       </c>
       <c r="R32" t="n">
-        <v>54.88637570391776</v>
+        <v>54.88637570391768</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>233.2408564388568</v>
       </c>
       <c r="L33" t="n">
-        <v>371.4428084841552</v>
+        <v>371.442808484156</v>
       </c>
       <c r="M33" t="n">
         <v>492.1799900982264</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>84.64602735359107</v>
+        <v>84.64602735359098</v>
       </c>
       <c r="K34" t="n">
         <v>34.80753191201401</v>
@@ -37236,16 +37236,16 @@
         <v>120.3509594427161</v>
       </c>
       <c r="N34" t="n">
-        <v>241.7808011236289</v>
+        <v>120.7564113816168</v>
       </c>
       <c r="O34" t="n">
         <v>100.5092491635852</v>
       </c>
       <c r="P34" t="n">
-        <v>64.50385852284386</v>
+        <v>185.5282482648577</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.0476617684487</v>
+        <v>106.0476617684486</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>74.13274607044073</v>
+        <v>111.3302967054404</v>
       </c>
       <c r="K35" t="n">
         <v>244.6746763741597</v>
       </c>
       <c r="L35" t="n">
-        <v>354.0153261005899</v>
+        <v>519.1649984804783</v>
       </c>
       <c r="M35" t="n">
         <v>400.12203785971</v>
@@ -37318,16 +37318,16 @@
         <v>385.1107455002866</v>
       </c>
       <c r="O35" t="n">
-        <v>348.0760108713226</v>
+        <v>310.8784602363221</v>
       </c>
       <c r="P35" t="n">
-        <v>397.9949630762806</v>
+        <v>397.9949630762807</v>
       </c>
       <c r="Q35" t="n">
-        <v>262.3259060624473</v>
+        <v>97.176233682559</v>
       </c>
       <c r="R35" t="n">
-        <v>76.45906751556427</v>
+        <v>76.45906751556433</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>371.442808484156</v>
       </c>
       <c r="M36" t="n">
-        <v>492.1799900982264</v>
+        <v>492.1799900982262</v>
       </c>
       <c r="N36" t="n">
         <v>518.736734966704</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>50.28251996071527</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>34.80753191201401</v>
@@ -37479,7 +37479,7 @@
         <v>100.5092491635852</v>
       </c>
       <c r="P37" t="n">
-        <v>64.50385852284386</v>
+        <v>114.7863784835584</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>262.3259060624474</v>
       </c>
       <c r="R38" t="n">
-        <v>76.4590675155643</v>
+        <v>76.45906751556433</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>306.8410642033352</v>
       </c>
       <c r="Q39" t="n">
-        <v>160.49745681941</v>
+        <v>160.4974568194099</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37680,13 +37680,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>13.60849813937344</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>14.66074828359399</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>14.19382395540768</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37716,13 +37716,13 @@
         <v>100.5092491635852</v>
       </c>
       <c r="P40" t="n">
-        <v>64.50385852284386</v>
+        <v>114.7863784835584</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>7.819449582339672</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>239.282418450329</v>
+        <v>111.3302967054412</v>
       </c>
       <c r="K41" t="n">
-        <v>409.824348754048</v>
+        <v>244.6746763741597</v>
       </c>
       <c r="L41" t="n">
         <v>354.0153261005899</v>
@@ -37792,16 +37792,16 @@
         <v>385.1107455002866</v>
       </c>
       <c r="O41" t="n">
-        <v>424.5350783868867</v>
+        <v>310.8784602363221</v>
       </c>
       <c r="P41" t="n">
-        <v>232.8452906963923</v>
+        <v>397.9949630762806</v>
       </c>
       <c r="Q41" t="n">
-        <v>97.176233682559</v>
+        <v>262.3259060624473</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>76.45906751556424</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37917,22 +37917,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>13.60849813937338</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>14.66074828359393</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>14.19382395540762</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>7.43686487530678</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.3825847070337495</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>34.80753191201401</v>
       </c>
       <c r="L43" t="n">
-        <v>153.0113372003735</v>
+        <v>102.7288172396583</v>
       </c>
       <c r="M43" t="n">
         <v>120.3509594427161</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>239.2824184503291</v>
+        <v>239.282418450329</v>
       </c>
       <c r="K44" t="n">
-        <v>281.8722270091602</v>
+        <v>244.6746763741597</v>
       </c>
       <c r="L44" t="n">
-        <v>519.1649984804782</v>
+        <v>354.0153261005899</v>
       </c>
       <c r="M44" t="n">
         <v>400.12203785971</v>
@@ -38029,16 +38029,16 @@
         <v>385.1107455002866</v>
       </c>
       <c r="O44" t="n">
-        <v>310.8784602363221</v>
+        <v>476.0281326162104</v>
       </c>
       <c r="P44" t="n">
         <v>232.8452906963923</v>
       </c>
       <c r="Q44" t="n">
-        <v>97.176233682559</v>
+        <v>134.3737843175593</v>
       </c>
       <c r="R44" t="n">
-        <v>76.4590675155643</v>
+        <v>76.45906751556424</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>233.2408564388568</v>
       </c>
       <c r="L45" t="n">
-        <v>371.4428084841562</v>
+        <v>371.442808484156</v>
       </c>
       <c r="M45" t="n">
         <v>492.1799900982264</v>
@@ -38154,19 +38154,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>13.60849813937338</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>14.19382395540762</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>5.022747226079153</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38193,10 +38193,10 @@
         <v>64.50385852284386</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.28251996071479</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>17.45745063985527</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
